--- a/Figures and tables/S5 Table Correlation matrix p values.xlsx
+++ b/Figures and tables/S5 Table Correlation matrix p values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Revision\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1093596-825E-47A1-AB63-9D4A0E247B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B6A930-F6EE-4ADD-B51A-C9780D796F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>Root_weight</t>
   </si>
@@ -90,18 +90,6 @@
     <t>Stress_Chlorophyll_B</t>
   </si>
   <si>
-    <t>Width_WO_husk</t>
-  </si>
-  <si>
-    <t>Length_WO_husk</t>
-  </si>
-  <si>
-    <t>Height_WO_husk</t>
-  </si>
-  <si>
-    <t>Seed_Weight</t>
-  </si>
-  <si>
     <t>Root_thickness</t>
   </si>
   <si>
@@ -136,12 +124,6 @@
   </si>
   <si>
     <t>Lost_Chlorophyll_B</t>
-  </si>
-  <si>
-    <t>Seed_volume</t>
-  </si>
-  <si>
-    <t>Seed_density</t>
   </si>
   <si>
     <t>Supplementary table 5. P values for entire correlation matrix in supplementary figure 1.</t>
@@ -465,7 +447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -499,12 +483,12 @@
     <col min="39" max="40" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -604,148 +588,115 @@
       <c r="AH2" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>6.0616058714642202E-49</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1.5379724210476199E-38</v>
+        <v>6.5131076654589404E-38</v>
       </c>
       <c r="D3" s="1">
-        <v>1.41565203237432E-7</v>
+        <v>4.7098136481885899E-14</v>
       </c>
       <c r="E3" s="1">
-        <v>1.2816288639028999E-19</v>
+        <v>3.0667875740599298E-20</v>
       </c>
       <c r="F3">
-        <v>0.87209958967357004</v>
+        <v>1.6275842614316902E-2</v>
       </c>
       <c r="G3">
-        <v>0.137027288199883</v>
+        <v>0.257868228239997</v>
       </c>
       <c r="H3">
-        <v>5.2259064001755002E-3</v>
+        <v>0.9095493041046</v>
       </c>
       <c r="I3">
-        <v>4.5421831528246598E-4</v>
+        <v>8.7865608302755194E-2</v>
       </c>
       <c r="J3" s="1">
-        <v>1.2262732439557801E-7</v>
+        <v>1.93170839745718E-6</v>
       </c>
       <c r="K3" s="1">
-        <v>1.12888798377034E-2</v>
+        <v>6.0885766407043898E-5</v>
       </c>
       <c r="L3" s="1">
-        <v>3.9104133423096701E-36</v>
+        <v>1.6522944970302599E-16</v>
       </c>
       <c r="M3" s="1">
-        <v>6.41279699705148E-25</v>
+        <v>5.7205088202981497E-15</v>
       </c>
       <c r="N3" s="1">
-        <v>3.1060182501092301E-7</v>
+        <v>1.9525288557824299E-7</v>
       </c>
       <c r="O3" s="1">
-        <v>5.18721697318242E-15</v>
+        <v>1.1155623258181501E-10</v>
       </c>
       <c r="P3">
-        <v>9.7582870541203703E-4</v>
+        <v>0.44513315884070598</v>
       </c>
       <c r="Q3">
-        <v>9.6036714707183795E-4</v>
+        <v>0.91936705632625304</v>
       </c>
       <c r="R3">
-        <v>2.80529168911516E-11</v>
+        <v>0.25746239195033999</v>
       </c>
       <c r="S3">
-        <v>0.77459683277114399</v>
+        <v>0.71325217783918304</v>
       </c>
       <c r="T3" s="1">
-        <v>3.9771386323399401E-22</v>
+        <v>3.9103433106408499E-7</v>
       </c>
       <c r="U3" s="1">
-        <v>2.71724392216492E-24</v>
+        <v>5.8305831182590199E-9</v>
       </c>
       <c r="V3" s="1">
-        <v>1.0550324677475801E-21</v>
-      </c>
-      <c r="W3">
-        <v>0.67623083221126201</v>
+        <v>6.1428175684925094E-8</v>
+      </c>
+      <c r="W3" s="1">
+        <v>7.4232035474159203E-37</v>
       </c>
       <c r="X3" s="1">
-        <v>4.5688090652778297E-6</v>
-      </c>
-      <c r="Y3">
-        <v>2.6807621108030599E-2</v>
+        <v>4.5687193026661001E-25</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.6976053130827799E-8</v>
       </c>
       <c r="Z3" s="1">
-        <v>9.82337563914697E-7</v>
+        <v>4.2444453490942601E-12</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.3698408700460301E-27</v>
+        <v>2.3867860071290901E-20</v>
       </c>
       <c r="AB3" s="1">
-        <v>1.47504560417294E-31</v>
+        <v>1.60242995315878E-16</v>
       </c>
       <c r="AC3" s="1">
-        <v>3.0876772752323499E-27</v>
+        <v>0.162214037149391</v>
       </c>
       <c r="AD3" s="1">
-        <v>2.5635018274712301E-25</v>
+        <v>2.7345284691524298E-5</v>
       </c>
       <c r="AE3" s="1">
-        <v>2.0378755693875899E-17</v>
+        <v>8.0897364832210092E-15</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.4557447353764598E-12</v>
+        <v>1.1835054525896E-5</v>
       </c>
       <c r="AG3">
-        <v>0.32715846906538798</v>
+        <v>3.4413210475633298E-3</v>
       </c>
       <c r="AH3" s="1">
-        <v>3.2979752388323902E-5</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>1.8330113470153401E-11</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>3.1811299407849601E-7</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>1.45136771349526E-18</v>
-      </c>
-      <c r="AL3">
-        <v>3.6903890900038402E-17</v>
-      </c>
-      <c r="AM3">
-        <v>1.9043432197931399E-5</v>
-      </c>
-      <c r="AN3">
-        <v>1.8069903867020601E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+        <v>3.7633348579973303E-2</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -753,121 +704,107 @@
         <v>6.5131076654589404E-38</v>
       </c>
       <c r="C4" s="1">
-        <v>1.1331606823387E-41</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.206318161144527</v>
+        <v>1.7115770121052401E-7</v>
       </c>
       <c r="E4" s="1">
-        <v>2.5751677638503399E-45</v>
+        <v>6.6406006887424598E-31</v>
       </c>
       <c r="F4">
-        <v>3.4396575746750898E-9</v>
+        <v>5.7959307626125001E-2</v>
       </c>
       <c r="G4">
-        <v>1.4192173161184101E-3</v>
+        <v>0.12707017536849499</v>
       </c>
       <c r="H4">
-        <v>1.2764741897543299E-5</v>
+        <v>0.50618872349908495</v>
       </c>
       <c r="I4">
-        <v>1.3150752400436199E-12</v>
+        <v>0.197604300336714</v>
       </c>
       <c r="J4" s="1">
-        <v>4.96197717345547E-30</v>
+        <v>5.5385001286909501E-9</v>
       </c>
       <c r="K4" s="1">
-        <v>1.07060508012561E-14</v>
+        <v>3.2752827152290499E-7</v>
       </c>
       <c r="L4" s="1">
-        <v>2.0585205080651701E-28</v>
+        <v>4.4356074782006401E-13</v>
       </c>
       <c r="M4" s="1">
-        <v>1.28863013152736E-40</v>
+        <v>2.32727838851237E-19</v>
       </c>
       <c r="N4" s="1">
-        <v>4.0673688117625202E-4</v>
+        <v>1.95455866009108E-5</v>
       </c>
       <c r="O4" s="1">
-        <v>3.6793857823671301E-27</v>
+        <v>6.7522321921972402E-14</v>
       </c>
       <c r="P4">
-        <v>2.39753148183481E-16</v>
+        <v>0.27012666056569501</v>
       </c>
       <c r="Q4">
-        <v>7.2364641498796105E-15</v>
+        <v>0.58403065378659502</v>
       </c>
       <c r="R4">
-        <v>6.4850711726865504E-22</v>
+        <v>0.23234661667095999</v>
       </c>
       <c r="S4">
-        <v>3.45169162621151E-3</v>
+        <v>0.86401661162836996</v>
       </c>
       <c r="T4" s="1">
-        <v>1.3099692074834301E-22</v>
+        <v>1.19113337906668E-7</v>
       </c>
       <c r="U4" s="1">
-        <v>3.32048308414399E-37</v>
+        <v>3.8384845401957401E-10</v>
       </c>
       <c r="V4" s="1">
-        <v>4.0119139817383897E-34</v>
-      </c>
-      <c r="W4">
-        <v>0.621236394111638</v>
+        <v>1.9810278067588302E-9</v>
+      </c>
+      <c r="W4" s="1">
+        <v>7.5294642724842602E-23</v>
       </c>
       <c r="X4" s="1">
-        <v>1.60609793995089E-6</v>
-      </c>
-      <c r="Y4">
-        <v>9.8942484446415697E-3</v>
+        <v>6.5652380065540496E-62</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.06469205447891E-7</v>
       </c>
       <c r="Z4" s="1">
-        <v>1.41878424983801E-7</v>
+        <v>2.4527942429070501E-14</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.07560606056084E-33</v>
+        <v>1.9448135589964502E-9</v>
       </c>
       <c r="AB4" s="1">
-        <v>1.7674339821285701E-66</v>
+        <v>3.7152091356702401E-38</v>
       </c>
       <c r="AC4" s="1">
-        <v>2.3517527793274299E-29</v>
+        <v>0.66555607876457101</v>
       </c>
       <c r="AD4" s="1">
-        <v>7.6535723043329696E-31</v>
+        <v>1.6639468275847E-7</v>
       </c>
       <c r="AE4" s="1">
-        <v>3.52898722053872E-28</v>
+        <v>4.4141649532883096E-9</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.7682884273317202E-41</v>
+        <v>1.2967153309464401E-13</v>
       </c>
       <c r="AG4">
-        <v>1.1887057122382501E-5</v>
+        <v>5.4134454907916003E-3</v>
       </c>
       <c r="AH4" s="1">
-        <v>8.2330644892093096E-26</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>3.8323838127382398E-20</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>3.2467216344100101E-25</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>1.04072245490065E-25</v>
-      </c>
-      <c r="AL4">
-        <v>1.61988950353316E-18</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>3.60879029437614E-6</v>
-      </c>
-      <c r="AN4">
-        <v>1.1364197756525401E-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+        <v>6.0472122231990201E-2</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -875,121 +812,104 @@
         <v>4.7098136481885899E-14</v>
       </c>
       <c r="C5" s="1">
-        <v>1.71157701210527E-7</v>
+        <v>1.7115770121052401E-7</v>
       </c>
       <c r="D5" s="1">
-        <v>1.97781640890376E-45</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.63060301613888703</v>
+        <v>3.04942212823978E-6</v>
       </c>
       <c r="F5">
-        <v>4.55696265150968E-14</v>
+        <v>0.221339347977245</v>
       </c>
       <c r="G5">
-        <v>1.0997192278140099E-3</v>
+        <v>0.98011419755710805</v>
       </c>
       <c r="H5">
-        <v>1.4516359216956501E-8</v>
+        <v>0.85760761690412002</v>
       </c>
       <c r="I5">
-        <v>5.4979659803906095E-4</v>
+        <v>0.50154882320646499</v>
       </c>
       <c r="J5">
-        <v>4.9560259576855595E-4</v>
+        <v>2.99242184231833E-3</v>
       </c>
       <c r="K5">
-        <v>3.7327713098439803E-2</v>
+        <v>3.1846498465177397E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7863665808295199E-7</v>
+        <v>1.7077261862741499E-6</v>
       </c>
       <c r="M5">
-        <v>4.7433497678994102E-2</v>
+        <v>4.3093920943344504E-3</v>
       </c>
       <c r="N5" s="1">
-        <v>5.8302794850596494E-14</v>
+        <v>3.17452693331984E-12</v>
       </c>
       <c r="O5">
-        <v>0.395794555102021</v>
+        <v>8.2651874237929107E-3</v>
       </c>
       <c r="P5">
-        <v>4.5762024906698303E-16</v>
+        <v>0.114681399781538</v>
       </c>
       <c r="Q5">
-        <v>1.6822863243204799E-16</v>
+        <v>7.4188195011127805E-2</v>
       </c>
       <c r="R5">
-        <v>2.4173109377533799E-3</v>
+        <v>0.48594339578735801</v>
       </c>
       <c r="S5">
-        <v>1.47838408316233E-7</v>
+        <v>0.97980607208023696</v>
       </c>
       <c r="T5">
-        <v>2.0051910709078299E-3</v>
+        <v>5.8249176412612402E-2</v>
       </c>
       <c r="U5">
-        <v>0.83196931785483297</v>
+        <v>0.14754828300037601</v>
       </c>
       <c r="V5">
-        <v>0.88157961115486605</v>
+        <v>0.122597533178102</v>
       </c>
       <c r="W5" s="1">
-        <v>2.2355683794006399E-10</v>
-      </c>
-      <c r="X5">
-        <v>2.1439238423628899E-2</v>
+        <v>0.29069634518315701</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.0197417121876399E-5</v>
       </c>
       <c r="Y5" s="1">
-        <v>1.27372743267481E-11</v>
+        <v>0.38092665639784801</v>
       </c>
       <c r="Z5" s="1">
-        <v>3.0575729780692099E-5</v>
+        <v>1.12865664197271E-2</v>
       </c>
       <c r="AA5">
-        <v>4.1293291190532799E-6</v>
+        <v>1.22969721898914E-4</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.60301729906303503</v>
-      </c>
-      <c r="AC5">
-        <v>0.57633491833026396</v>
+        <v>1.9562636295886501E-5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3.4628125461873802E-9</v>
       </c>
       <c r="AD5">
-        <v>1.00100470412129E-2</v>
+        <v>2.1785966611300701E-3</v>
       </c>
       <c r="AE5">
-        <v>4.1123271132000099E-6</v>
+        <v>6.12495997384832E-2</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.1218231114587197E-5</v>
+        <v>1.03344761985412E-2</v>
       </c>
       <c r="AG5" s="1">
-        <v>8.5651103555331098E-16</v>
+        <v>0.87516380243310499</v>
       </c>
       <c r="AH5">
-        <v>9.3181616661458994E-9</v>
-      </c>
-      <c r="AI5">
-        <v>3.1976103192833701E-13</v>
-      </c>
-      <c r="AJ5">
-        <v>1.12399893328684E-7</v>
-      </c>
-      <c r="AK5">
-        <v>2.8092194808415401E-2</v>
-      </c>
-      <c r="AL5">
-        <v>9.9355773749257303E-2</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>2.2512235366561401E-7</v>
-      </c>
-      <c r="AN5">
-        <v>9.2123945758002701E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0.988910926626132</v>
+      </c>
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1003,115 +923,97 @@
         <v>3.04942212823978E-6</v>
       </c>
       <c r="E6" s="1">
-        <v>9.6642251287713602E-45</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.28738998374675E-15</v>
+        <v>0.69957276192860995</v>
       </c>
       <c r="G6">
-        <v>9.8309973093227403E-3</v>
+        <v>8.4092124188082595E-2</v>
       </c>
       <c r="H6">
-        <v>6.6403078511686905E-2</v>
+        <v>0.98474564202276904</v>
       </c>
       <c r="I6">
-        <v>1.5986849413469499E-4</v>
+        <v>4.24919445981694E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>6.8328901560997405E-27</v>
+        <v>5.5618718039346402E-9</v>
       </c>
       <c r="K6" s="1">
-        <v>1.11581407259245E-14</v>
+        <v>1.0627311882737299E-5</v>
       </c>
       <c r="L6" s="1">
-        <v>8.41804491412236E-20</v>
+        <v>7.3341461413814701E-10</v>
       </c>
       <c r="M6" s="1">
-        <v>1.2392735241608001E-32</v>
+        <v>2.6477504322366501E-13</v>
       </c>
       <c r="N6">
-        <v>1.8161698493460101E-7</v>
+        <v>3.6546208289828301E-4</v>
       </c>
       <c r="O6" s="1">
-        <v>3.7213638703221503E-49</v>
+        <v>1.71777135219773E-21</v>
       </c>
       <c r="P6">
-        <v>4.1916750030459201E-11</v>
+        <v>5.5637911240162902E-2</v>
       </c>
       <c r="Q6">
-        <v>1.24064601476556E-11</v>
+        <v>0.253962634423823</v>
       </c>
       <c r="R6" s="1">
-        <v>2.0455095807871301E-28</v>
+        <v>3.3309099166256198E-2</v>
       </c>
       <c r="S6">
-        <v>4.83213573113195E-2</v>
+        <v>0.45274625397624502</v>
       </c>
       <c r="T6" s="1">
-        <v>6.63222920563419E-18</v>
+        <v>1.9676295093270202E-6</v>
       </c>
       <c r="U6" s="1">
-        <v>2.1625280658602099E-28</v>
+        <v>3.8747831493536101E-8</v>
       </c>
       <c r="V6" s="1">
-        <v>5.26932279669532E-25</v>
-      </c>
-      <c r="W6">
-        <v>0.82398413939595605</v>
-      </c>
-      <c r="X6">
-        <v>3.8334219067097399E-3</v>
-      </c>
-      <c r="Y6">
-        <v>5.7733721253104397E-3</v>
-      </c>
-      <c r="Z6">
-        <v>8.4469119714771401E-4</v>
+        <v>8.7733308834365504E-8</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2.2139606368845299E-12</v>
+      </c>
+      <c r="X6" s="1">
+        <v>9.2622283007164603E-8</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2.3168645065952401E-6</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3.3572510174587701E-6</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.8346352377180803E-20</v>
+        <v>2.3139328701434499E-5</v>
       </c>
       <c r="AB6" s="1">
-        <v>2.0091646564138399E-15</v>
+        <v>3.0954541871738001E-14</v>
       </c>
       <c r="AC6" s="1">
-        <v>4.0818880249451404E-15</v>
+        <v>0.50302372663134698</v>
       </c>
       <c r="AD6" s="1">
-        <v>1.36348257430066E-15</v>
+        <v>5.1280482482637402E-18</v>
       </c>
       <c r="AE6" s="1">
-        <v>3.5860681629082198E-16</v>
+        <v>1.0511396723790301E-4</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.6114033661698399E-24</v>
+        <v>6.4850251269973097E-2</v>
       </c>
       <c r="AG6">
-        <v>4.8013643752271699E-12</v>
+        <v>3.2569489196800902E-2</v>
       </c>
       <c r="AH6" s="1">
-        <v>2.2502901610283299E-29</v>
-      </c>
-      <c r="AI6">
-        <v>2.4819450666504198E-16</v>
-      </c>
-      <c r="AJ6">
-        <v>1.4231050665315401E-11</v>
-      </c>
-      <c r="AK6">
-        <v>4.0780144371348798E-22</v>
-      </c>
-      <c r="AL6">
-        <v>2.2336425466586401E-14</v>
-      </c>
-      <c r="AM6">
-        <v>6.7866295098436601E-3</v>
-      </c>
-      <c r="AN6">
-        <v>1.2575440428007101E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+        <v>7.3662130168570997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1128,112 +1030,94 @@
         <v>0.69957276192860995</v>
       </c>
       <c r="F7" s="1">
-        <v>2.89411831405807E-5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>8.18340673516432E-5</v>
+        <v>8.5633044007299708E-3</v>
       </c>
       <c r="H7">
-        <v>5.0313953166786097E-9</v>
+        <v>0.62265501839840998</v>
       </c>
       <c r="I7">
-        <v>6.4679074038954195E-11</v>
+        <v>0.119156736831842</v>
       </c>
       <c r="J7">
-        <v>4.5188187807451803E-42</v>
+        <v>0.79093188249674595</v>
       </c>
       <c r="K7">
-        <v>1.8144783029073201E-29</v>
+        <v>0.67020719909863402</v>
       </c>
       <c r="L7">
-        <v>0.461039629604104</v>
+        <v>8.4539508153769802E-2</v>
       </c>
       <c r="M7">
-        <v>1.4200348382223499E-4</v>
+        <v>0.39892056120838298</v>
       </c>
       <c r="N7">
-        <v>0.90636403038190505</v>
+        <v>0.65989132172681497</v>
       </c>
       <c r="O7">
-        <v>3.03741656148032E-9</v>
+        <v>0.81765996017627596</v>
       </c>
       <c r="P7">
-        <v>3.0504137567695998E-32</v>
+        <v>0.61883866870966797</v>
       </c>
       <c r="Q7">
-        <v>1.8871223482374399E-32</v>
+        <v>0.79275544227533601</v>
       </c>
       <c r="R7">
-        <v>4.0831265127214399E-14</v>
+        <v>0.75059391975620304</v>
       </c>
       <c r="S7">
-        <v>2.8166048203951601E-12</v>
+        <v>0.97548465468134404</v>
       </c>
       <c r="T7">
-        <v>0.59505667982114396</v>
+        <v>0.79721473637440698</v>
       </c>
       <c r="U7">
-        <v>1.28808847097442E-6</v>
+        <v>0.45008377553121798</v>
       </c>
       <c r="V7">
-        <v>2.2450073138209001E-6</v>
+        <v>0.14452542219591999</v>
       </c>
       <c r="W7" s="1">
-        <v>1.033222643254E-6</v>
+        <v>5.2808239940402998E-2</v>
       </c>
       <c r="X7">
-        <v>6.9595389715020994E-2</v>
+        <v>3.6443489616022298E-2</v>
       </c>
       <c r="Y7">
-        <v>2.1798271514344901E-2</v>
+        <v>2.4229439781481399E-2</v>
       </c>
       <c r="Z7">
-        <v>5.6262242945319098E-2</v>
+        <v>0.174568587141432</v>
       </c>
       <c r="AA7">
-        <v>2.1631704607419099E-10</v>
+        <v>0.33687365087677101</v>
       </c>
       <c r="AB7">
-        <v>1.50301365515511E-5</v>
+        <v>0.106396883895825</v>
       </c>
       <c r="AC7">
-        <v>4.1670027926832602E-2</v>
+        <v>0.123729345837129</v>
       </c>
       <c r="AD7">
-        <v>0.125282917943423</v>
+        <v>0.35501481397671503</v>
       </c>
       <c r="AE7">
-        <v>2.3795764622758201E-14</v>
+        <v>0.90695764664329404</v>
       </c>
       <c r="AF7">
-        <v>2.5684699052827701E-30</v>
+        <v>0.42362623860365001</v>
       </c>
       <c r="AG7">
-        <v>3.1380691720455599E-29</v>
+        <v>0.55253225658354199</v>
       </c>
       <c r="AH7">
-        <v>6.08190245820371E-64</v>
-      </c>
-      <c r="AI7">
-        <v>7.2860490024810403E-22</v>
-      </c>
-      <c r="AJ7">
-        <v>8.2539441821384703E-26</v>
-      </c>
-      <c r="AK7">
-        <v>6.8619719714834997E-6</v>
-      </c>
-      <c r="AL7">
-        <v>7.9874815751904606E-3</v>
-      </c>
-      <c r="AM7">
-        <v>5.5404540898229097E-3</v>
-      </c>
-      <c r="AN7">
-        <v>3.6043365584073701E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0.302134106586887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1125,7 @@
         <v>0.257868228239997</v>
       </c>
       <c r="C8">
-        <v>0.12707017536849299</v>
+        <v>0.12707017536849499</v>
       </c>
       <c r="D8">
         <v>0.98011419755710805</v>
@@ -1253,109 +1137,91 @@
         <v>8.5633044007299708E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>4.9391395709582099E-71</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.2754140684742798E-5</v>
+        <v>0.19916484435797499</v>
       </c>
       <c r="I8">
-        <v>1.19240560655302E-5</v>
+        <v>0.99520481565641605</v>
       </c>
       <c r="J8">
-        <v>1.88501124905217E-3</v>
+        <v>0.56122621460831901</v>
       </c>
       <c r="K8">
-        <v>0.28994686866198499</v>
+        <v>0.97439669472665302</v>
       </c>
       <c r="L8">
-        <v>0.25799446838509599</v>
+        <v>0.411694792462999</v>
       </c>
       <c r="M8">
-        <v>2.2454860148544201E-2</v>
+        <v>0.109505842774032</v>
       </c>
       <c r="N8">
-        <v>0.299695623002113</v>
+        <v>0.17471034492474</v>
       </c>
       <c r="O8">
-        <v>0.127753105810336</v>
+        <v>0.38908992253334901</v>
       </c>
       <c r="P8">
-        <v>5.0076808171268801E-6</v>
+        <v>0.62621609449872195</v>
       </c>
       <c r="Q8">
-        <v>6.0635554210879898E-5</v>
+        <v>0.68596071726828201</v>
       </c>
       <c r="R8">
-        <v>9.0859663474698801E-3</v>
+        <v>0.71053696695458302</v>
       </c>
       <c r="S8">
-        <v>0.234983654285816</v>
+        <v>0.66600315595103798</v>
       </c>
       <c r="T8">
-        <v>5.0412483950358598E-2</v>
+        <v>6.4520674814805404E-2</v>
       </c>
       <c r="U8">
-        <v>2.4045274618081602E-2</v>
+        <v>0.22134019732092899</v>
       </c>
       <c r="V8">
-        <v>4.8933118286370203E-2</v>
+        <v>0.466569112052235</v>
       </c>
       <c r="W8">
-        <v>1.52833240720367E-2</v>
+        <v>0.20186168665451801</v>
       </c>
       <c r="X8">
-        <v>1.6544130422861601E-2</v>
+        <v>0.37283163554226001</v>
       </c>
       <c r="Y8">
-        <v>2.11164126291148E-2</v>
+        <v>0.94096517117419598</v>
       </c>
       <c r="Z8">
-        <v>0.51113115117248098</v>
+        <v>8.4520789999608895E-2</v>
       </c>
       <c r="AA8">
-        <v>4.8001090541826102E-5</v>
+        <v>0.56805950844410602</v>
       </c>
       <c r="AB8">
-        <v>9.0555798991588004E-4</v>
+        <v>0.47135043480299099</v>
       </c>
       <c r="AC8">
-        <v>2.0476634651131399E-2</v>
+        <v>0.15914154947980499</v>
       </c>
       <c r="AD8">
-        <v>2.6390289242521198E-2</v>
+        <v>0.19398542911641101</v>
       </c>
       <c r="AE8">
-        <v>3.5931378747334E-6</v>
+        <v>0.18613449432440399</v>
       </c>
       <c r="AF8">
-        <v>6.54384645435809E-6</v>
+        <v>0.65855240391542202</v>
       </c>
       <c r="AG8">
-        <v>2.3561800014020502E-3</v>
+        <v>0.38980219331218002</v>
       </c>
       <c r="AH8">
-        <v>4.04329624784251E-5</v>
-      </c>
-      <c r="AI8">
-        <v>1.1196064178407999E-5</v>
-      </c>
-      <c r="AJ8">
-        <v>5.2125409099030503E-6</v>
-      </c>
-      <c r="AK8">
-        <v>4.2916948328912598E-3</v>
-      </c>
-      <c r="AL8">
-        <v>4.2888800795960799E-3</v>
-      </c>
-      <c r="AM8">
-        <v>0.41761983117370799</v>
-      </c>
-      <c r="AN8">
-        <v>6.1869981499919303E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0.52786848962912802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1229,7 @@
         <v>0.9095493041046</v>
       </c>
       <c r="C9">
-        <v>0.50618872349908095</v>
+        <v>0.50618872349908495</v>
       </c>
       <c r="D9">
         <v>0.85760761690412002</v>
@@ -1378,106 +1244,88 @@
         <v>0.19916484435797499</v>
       </c>
       <c r="H9" s="1">
-        <v>8.5082477551076902E-13</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.2569195647723997E-15</v>
+        <v>0.336228172937378</v>
       </c>
       <c r="J9">
-        <v>3.96522329961348E-10</v>
+        <v>0.58836388186187005</v>
       </c>
       <c r="K9">
-        <v>4.3806334649613603E-3</v>
+        <v>0.18772822003206699</v>
       </c>
       <c r="L9">
-        <v>0.47551472513468901</v>
+        <v>0.78974364278377496</v>
       </c>
       <c r="M9">
-        <v>0.102303006531151</v>
+        <v>0.66770059750060995</v>
       </c>
       <c r="N9">
-        <v>6.2701021441838997E-3</v>
+        <v>0.30630534134055598</v>
       </c>
       <c r="O9">
-        <v>0.35672806197745</v>
+        <v>0.74164784146734897</v>
       </c>
       <c r="P9">
-        <v>2.3193038697877099E-23</v>
+        <v>0.90640047021509396</v>
       </c>
       <c r="Q9">
-        <v>5.0926958916998001E-19</v>
+        <v>0.71598593621113005</v>
       </c>
       <c r="R9">
-        <v>4.0141041972588803E-3</v>
+        <v>0.71823881685618696</v>
       </c>
       <c r="S9">
-        <v>7.0292866278090297E-9</v>
+        <v>0.131598787847897</v>
       </c>
       <c r="T9">
-        <v>0.62924052069635195</v>
+        <v>0.19692936358374299</v>
       </c>
       <c r="U9">
-        <v>4.4077105746706E-5</v>
+        <v>0.48007771443876901</v>
       </c>
       <c r="V9">
-        <v>4.2302503480526997E-6</v>
+        <v>0.62771308755356203</v>
       </c>
       <c r="W9" s="1">
-        <v>6.0590188707330102E-7</v>
+        <v>0.77866802119586498</v>
       </c>
       <c r="X9" s="1">
-        <v>1.85753251947855E-9</v>
+        <v>0.47569142626869598</v>
       </c>
       <c r="Y9" s="1">
-        <v>9.6456823206107198E-8</v>
+        <v>0.68488058120114004</v>
       </c>
       <c r="Z9">
-        <v>0.88339375798860598</v>
+        <v>0.56572489717836005</v>
       </c>
       <c r="AA9">
-        <v>4.1594650278762098E-16</v>
+        <v>0.66369229206792002</v>
       </c>
       <c r="AB9">
-        <v>2.09775988950438E-11</v>
+        <v>0.57342933672630303</v>
       </c>
       <c r="AC9">
-        <v>6.8695552805786897E-4</v>
+        <v>0.36476096298917099</v>
       </c>
       <c r="AD9">
-        <v>4.7522799011882097E-2</v>
+        <v>0.74875469341487499</v>
       </c>
       <c r="AE9">
-        <v>7.3385315727172004E-23</v>
+        <v>0.94883673034853</v>
       </c>
       <c r="AF9">
-        <v>2.04562981179186E-17</v>
+        <v>0.72446181502876805</v>
       </c>
       <c r="AG9">
-        <v>4.6966222827538799E-6</v>
+        <v>0.33105161026276497</v>
       </c>
       <c r="AH9">
-        <v>1.2871326149902501E-10</v>
-      </c>
-      <c r="AI9">
-        <v>5.2956456941573102E-21</v>
-      </c>
-      <c r="AJ9">
-        <v>9.7859845050025009E-25</v>
-      </c>
-      <c r="AK9">
-        <v>6.9566639065712E-6</v>
-      </c>
-      <c r="AL9">
-        <v>1.6902480682748899E-7</v>
-      </c>
-      <c r="AM9">
-        <v>0.21523210008642901</v>
-      </c>
-      <c r="AN9">
-        <v>2.0014820672180999E-25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0.18911721615243801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1503,108 +1351,90 @@
         <v>0.336228172937378</v>
       </c>
       <c r="I10" s="1">
-        <v>8.4169184989428899E-10</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.4594282054141699E-24</v>
+        <v>0.39643141799619103</v>
       </c>
       <c r="K10">
-        <v>7.6589545184640703E-11</v>
+        <v>0.46686132537965402</v>
       </c>
       <c r="L10">
-        <v>6.2421779492416304E-3</v>
+        <v>0.32636853401595201</v>
       </c>
       <c r="M10">
-        <v>7.5619513467428895E-4</v>
+        <v>0.69830200492405803</v>
       </c>
       <c r="N10">
-        <v>0.124402819426067</v>
+        <v>0.44019079355493901</v>
       </c>
       <c r="O10">
-        <v>2.5701194357013801E-2</v>
+        <v>0.10596005467816499</v>
       </c>
       <c r="P10">
-        <v>1.08393492815875E-31</v>
+        <v>0.966670803814769</v>
       </c>
       <c r="Q10">
-        <v>4.6308261323086698E-26</v>
+        <v>0.98665247311047</v>
       </c>
       <c r="R10">
-        <v>2.3195470502244101E-6</v>
+        <v>0.86359722454605403</v>
       </c>
       <c r="S10">
-        <v>1.5254138815078099E-6</v>
+        <v>0.85095504476374195</v>
       </c>
       <c r="T10">
-        <v>1.2217708254077499E-2</v>
+        <v>0.92130317158425501</v>
       </c>
       <c r="U10">
-        <v>1.10021527665967E-8</v>
+        <v>0.90888672985333796</v>
       </c>
       <c r="V10">
-        <v>1.5961938697363901E-9</v>
+        <v>0.62250621723952704</v>
       </c>
       <c r="W10">
-        <v>1.4899490918015999E-3</v>
+        <v>6.9963080490047194E-2</v>
       </c>
       <c r="X10">
-        <v>8.51613646391298E-4</v>
+        <v>0.56679037560817003</v>
       </c>
       <c r="Y10">
-        <v>2.20994003721795E-4</v>
+        <v>0.56539390214913698</v>
       </c>
       <c r="Z10">
-        <v>0.389671861519997</v>
+        <v>0.83753225078142401</v>
       </c>
       <c r="AA10">
-        <v>2.21977591968262E-14</v>
+        <v>0.32596192019958797</v>
       </c>
       <c r="AB10">
-        <v>7.2557852952931996E-23</v>
+        <v>0.20518870434491501</v>
       </c>
       <c r="AC10">
-        <v>5.6932674414568196E-7</v>
+        <v>0.84989549389913299</v>
       </c>
       <c r="AD10">
-        <v>4.9124944488858498E-4</v>
+        <v>0.37105172096479999</v>
       </c>
       <c r="AE10">
-        <v>5.8990139208829897E-25</v>
+        <v>0.14678200766854299</v>
       </c>
       <c r="AF10">
-        <v>1.9743392627782601E-33</v>
+        <v>0.46754257113518499</v>
       </c>
       <c r="AG10">
-        <v>4.7940063545447203E-5</v>
+        <v>0.53393615049767695</v>
       </c>
       <c r="AH10">
-        <v>1.3360037153368101E-22</v>
-      </c>
-      <c r="AI10">
-        <v>8.0527677878156595E-17</v>
-      </c>
-      <c r="AJ10">
-        <v>5.1200645731493203E-39</v>
-      </c>
-      <c r="AK10">
-        <v>3.0743905123669199E-8</v>
-      </c>
-      <c r="AL10">
-        <v>1.5859582308552499E-7</v>
-      </c>
-      <c r="AM10">
-        <v>0.274210820668295</v>
-      </c>
-      <c r="AN10">
-        <v>1.6187542703095301E-12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0.33020707834223501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>1.93170839745715E-6</v>
+        <v>1.93170839745718E-6</v>
       </c>
       <c r="C11" s="1">
         <v>5.5385001286909501E-9</v>
@@ -1628,100 +1458,84 @@
         <v>0.39643141799619103</v>
       </c>
       <c r="J11" s="1">
-        <v>9.7287338557073297E-10</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2.25952016118583E-59</v>
+        <v>2.2505740443730801E-64</v>
       </c>
       <c r="L11">
-        <v>5.21263234563903E-7</v>
+        <v>2.1944464353373199E-2</v>
       </c>
       <c r="M11">
-        <v>1.4966373313560799E-12</v>
+        <v>1.08723611535283E-2</v>
       </c>
       <c r="N11">
-        <v>0.20751329024416701</v>
+        <v>0.275979177652656</v>
       </c>
       <c r="O11" s="1">
-        <v>2.7668906948645901E-14</v>
+        <v>8.1728933135413601E-3</v>
       </c>
       <c r="P11">
-        <v>3.0470436704780501E-45</v>
+        <v>0.63024116796761598</v>
       </c>
       <c r="Q11">
-        <v>3.2812680546601599E-45</v>
+        <v>0.92998477169062199</v>
       </c>
       <c r="R11">
-        <v>2.8979590863993102E-19</v>
+        <v>0.62710209890416602</v>
       </c>
       <c r="S11">
-        <v>3.5608318691267499E-16</v>
+        <v>0.31666852001358298</v>
       </c>
       <c r="T11">
-        <v>1.8823875516466901E-5</v>
+        <v>0.47096548681064299</v>
       </c>
       <c r="U11" s="1">
-        <v>4.7485917882920897E-21</v>
+        <v>1.42303805270964E-2</v>
       </c>
       <c r="V11" s="1">
-        <v>2.5998019809081002E-22</v>
-      </c>
-      <c r="W11">
-        <v>7.7988057679658097E-3</v>
-      </c>
-      <c r="X11">
-        <v>1.5562164935157799E-3</v>
+        <v>3.5195675768792799E-3</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8.7216900671310604E-5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>6.1562285797428704E-7</v>
       </c>
       <c r="Y11">
-        <v>0.37005285618285599</v>
+        <v>4.2554829614631202E-2</v>
       </c>
       <c r="Z11">
-        <v>0.49047090648139902</v>
+        <v>5.3007084883821901E-2</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.1869178378881699E-22</v>
+        <v>1.04868464273963E-3</v>
       </c>
       <c r="AB11" s="1">
-        <v>8.1937852711773304E-25</v>
+        <v>1.3424971927261E-7</v>
       </c>
       <c r="AC11">
-        <v>9.6998056473579306E-10</v>
-      </c>
-      <c r="AD11">
-        <v>1.2001663965569601E-7</v>
+        <v>9.9695336740839705E-2</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>8.35538731057931E-6</v>
       </c>
       <c r="AE11">
-        <v>7.0321685181684496E-28</v>
+        <v>7.0515194283423304E-3</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.2604651453481801E-60</v>
-      </c>
-      <c r="AG11">
-        <v>1.2268984999186899E-16</v>
+        <v>2.3077796778985901E-4</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>2.7105467902634E-6</v>
       </c>
       <c r="AH11" s="1">
-        <v>5.9533098150111104E-78</v>
-      </c>
-      <c r="AI11">
-        <v>8.8779729830683294E-28</v>
-      </c>
-      <c r="AJ11">
-        <v>1.2258141974496E-45</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>5.2336477370864498E-13</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>1.5230438658768399E-7</v>
-      </c>
-      <c r="AM11">
-        <v>0.91603408425469002</v>
-      </c>
-      <c r="AN11">
-        <v>5.4023773661245697E-12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1.3071972348225101E-7</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1753,97 +1567,81 @@
         <v>2.2505740443730801E-64</v>
       </c>
       <c r="K12" s="1">
-        <v>5.3174277288406899E-16</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.9442611837789298E-2</v>
+        <v>9.0017049033730798E-2</v>
       </c>
       <c r="M12">
-        <v>8.5770921989297003E-6</v>
+        <v>4.20335958433821E-2</v>
       </c>
       <c r="N12">
-        <v>0.39612305228019101</v>
+        <v>0.1954985006061</v>
       </c>
       <c r="O12">
-        <v>6.0893435921930299E-7</v>
+        <v>4.0248253382810101E-2</v>
       </c>
       <c r="P12">
-        <v>1.1797920011946201E-16</v>
+        <v>0.53708173490194699</v>
       </c>
       <c r="Q12">
-        <v>1.14808990688963E-17</v>
+        <v>0.82805726502883903</v>
       </c>
       <c r="R12">
-        <v>8.02662011158598E-8</v>
+        <v>0.81793624792154795</v>
       </c>
       <c r="S12">
-        <v>1.8968810774018699E-14</v>
+        <v>0.36649784394590601</v>
       </c>
       <c r="T12">
-        <v>0.116948738557711</v>
+        <v>0.691801798532657</v>
       </c>
       <c r="U12">
-        <v>3.3426968146351797E-8</v>
+        <v>5.3575722064837003E-2</v>
       </c>
       <c r="V12">
-        <v>2.6712819827422899E-9</v>
+        <v>2.2923979202900801E-2</v>
       </c>
       <c r="W12">
-        <v>0.38836642304053098</v>
-      </c>
-      <c r="X12">
-        <v>0.57131396835124704</v>
+        <v>2.5402714703420598E-4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1.7417771119867501E-6</v>
       </c>
       <c r="Y12">
-        <v>0.28387108860580801</v>
+        <v>0.23422609143777601</v>
       </c>
       <c r="Z12">
-        <v>0.64075924991338096</v>
+        <v>0.113124231583962</v>
       </c>
       <c r="AA12">
-        <v>3.2034453713495799E-6</v>
+        <v>2.80427517066639E-3</v>
       </c>
       <c r="AB12" s="1">
-        <v>7.4800151863694594E-11</v>
+        <v>1.65809492669834E-6</v>
       </c>
       <c r="AC12">
-        <v>6.8986190067701902E-3</v>
+        <v>0.51026188936015204</v>
       </c>
       <c r="AD12">
-        <v>3.7068905096179902E-3</v>
+        <v>7.3314421830099699E-4</v>
       </c>
       <c r="AE12">
-        <v>5.8594918542076E-7</v>
+        <v>2.46301633811453E-3</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.1012137837480999E-22</v>
-      </c>
-      <c r="AG12">
-        <v>4.6956095630374103E-8</v>
-      </c>
-      <c r="AH12">
-        <v>1.3772009619927501E-35</v>
-      </c>
-      <c r="AI12">
-        <v>2.0143775127323001E-8</v>
-      </c>
-      <c r="AJ12">
-        <v>8.02471237251839E-19</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>2.2410077462831E-2</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0.94803008850853598</v>
-      </c>
-      <c r="AM12">
-        <v>0.78919806387881397</v>
-      </c>
-      <c r="AN12">
-        <v>9.0489193751696104E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1.68894922565787E-4</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>6.8820230934725497E-6</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>5.5778044104560097E-12</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1878,105 +1676,90 @@
         <v>9.0017049033730798E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>1.2899057273710299E-41</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>6.7844737345888299E-55</v>
+        <v>1.1773272279557101E-46</v>
       </c>
       <c r="N13" s="1">
-        <v>6.6512803866334903E-16</v>
+        <v>9.73678062625077E-15</v>
       </c>
       <c r="O13" s="1">
-        <v>7.6949805674329503E-27</v>
+        <v>6.9393479987941802E-22</v>
       </c>
       <c r="P13">
-        <v>7.48232300675438E-3</v>
+        <v>8.7116228625619893E-2</v>
       </c>
       <c r="Q13">
-        <v>1.1872183968484299E-2</v>
+        <v>0.12795904104434599</v>
       </c>
       <c r="R13">
-        <v>9.3991156745302603E-12</v>
+        <v>5.9210650791676797E-2</v>
       </c>
       <c r="S13">
-        <v>0.26438498897208701</v>
+        <v>0.47644755027494301</v>
       </c>
       <c r="T13" s="1">
-        <v>1.9981284774849001E-44</v>
+        <v>2.2166920059757499E-24</v>
       </c>
       <c r="U13" s="1">
-        <v>4.9380783089180197E-33</v>
+        <v>3.80969196505628E-22</v>
       </c>
       <c r="V13" s="1">
-        <v>1.90039717885746E-29</v>
-      </c>
-      <c r="W13">
-        <v>0.11060086580459901</v>
-      </c>
-      <c r="X13">
-        <v>6.9212655896097499E-4</v>
+        <v>4.8972746629666001E-20</v>
+      </c>
+      <c r="W13" s="1">
+        <v>6.3255256230961003E-9</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2.01393144916465E-8</v>
       </c>
       <c r="Y13" s="1">
-        <v>7.2957500777383495E-5</v>
+        <v>1.6935454215346501E-41</v>
       </c>
       <c r="Z13" s="1">
-        <v>4.3527942721028398E-8</v>
+        <v>4.8959435373717202E-40</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.7279233260260195E-15</v>
+        <v>4.2004345401750202E-4</v>
       </c>
       <c r="AB13" s="1">
-        <v>1.32959158093788E-20</v>
+        <v>0.90509745669781605</v>
       </c>
       <c r="AC13" s="1">
-        <v>1.2224292887117099E-46</v>
+        <v>2.6089983650785598E-3</v>
       </c>
       <c r="AD13" s="1">
-        <v>6.8137197523514201E-53</v>
+        <v>0.163083364855754</v>
       </c>
       <c r="AE13">
-        <v>1.2768822128283E-7</v>
+        <v>9.0513201937417007E-2</v>
       </c>
       <c r="AF13">
-        <v>2.8646585592610601E-7</v>
-      </c>
-      <c r="AG13">
-        <v>4.7693750385439703E-3</v>
-      </c>
-      <c r="AH13">
-        <v>3.8082784183546498E-4</v>
-      </c>
-      <c r="AI13">
-        <v>1.3123947243713101E-4</v>
-      </c>
-      <c r="AJ13">
-        <v>1.4474465200356699E-3</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>5.1902855434834901E-24</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>4.6388860362150802E-22</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>5.0944949730494798E-7</v>
-      </c>
-      <c r="AN13">
-        <v>4.9577201696170598E-8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+        <v>3.4717612437388701E-3</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>5.7270422766858696E-14</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>8.7071468903441699E-11</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>5.7205088202981E-15</v>
+        <v>5.7205088202981497E-15</v>
       </c>
       <c r="C14" s="1">
-        <v>2.3272783885123098E-19</v>
+        <v>2.32727838851237E-19</v>
       </c>
       <c r="D14">
-        <v>4.3093920943344296E-3</v>
+        <v>4.3093920943344504E-3</v>
       </c>
       <c r="E14" s="1">
         <v>2.6477504322366501E-13</v>
@@ -1985,7 +1768,7 @@
         <v>0.39892056120838298</v>
       </c>
       <c r="G14">
-        <v>0.10950584277403</v>
+        <v>0.109505842774032</v>
       </c>
       <c r="H14">
         <v>0.66770059750060995</v>
@@ -2003,91 +1786,76 @@
         <v>1.1773272279557101E-46</v>
       </c>
       <c r="M14" s="1">
-        <v>1.16190582373204E-55</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>3.2100087622898101E-10</v>
+        <v>9.4695622794345303E-11</v>
       </c>
       <c r="O14" s="1">
-        <v>4.5960248757290097E-46</v>
+        <v>1.8352917031427801E-35</v>
       </c>
       <c r="P14">
-        <v>5.59035625542512E-6</v>
+        <v>9.8833090066136706E-2</v>
       </c>
       <c r="Q14">
-        <v>1.17726938270425E-5</v>
+        <v>0.14894418815740601</v>
       </c>
       <c r="R14" s="1">
-        <v>8.1617420163319801E-21</v>
+        <v>3.9692709470780102E-3</v>
       </c>
       <c r="S14">
-        <v>0.81940203982836601</v>
+        <v>0.62115530415092601</v>
       </c>
       <c r="T14" s="1">
-        <v>2.6044612929798601E-51</v>
+        <v>1.1620593990426501E-37</v>
       </c>
       <c r="U14" s="1">
-        <v>2.58141840832765E-48</v>
+        <v>3.1772448025689901E-35</v>
       </c>
       <c r="V14" s="1">
-        <v>1.1648341098304899E-40</v>
-      </c>
-      <c r="W14">
-        <v>0.14397429699896699</v>
-      </c>
-      <c r="X14">
-        <v>5.0061270230811303E-4</v>
+        <v>2.1632992363018601E-28</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1.20541145028154E-11</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1.1891424686363901E-11</v>
       </c>
       <c r="Y14" s="1">
-        <v>5.8518474905694601E-5</v>
+        <v>3.3349915520063101E-25</v>
       </c>
       <c r="Z14" s="1">
-        <v>6.7484467413262105E-8</v>
+        <v>3.6925195913738299E-78</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.74364107245869E-18</v>
+        <v>5.7236683742345099E-2</v>
       </c>
       <c r="AB14" s="1">
-        <v>2.3083066853450598E-22</v>
+        <v>0.85543847876669299</v>
       </c>
       <c r="AC14" s="1">
-        <v>1.7504729261892401E-36</v>
+        <v>1.9723253688517801E-4</v>
       </c>
       <c r="AD14" s="1">
-        <v>5.1564003006624398E-80</v>
+        <v>5.8125776743083203E-2</v>
       </c>
       <c r="AE14">
-        <v>1.22959974438412E-9</v>
+        <v>0.69232104591634502</v>
       </c>
       <c r="AF14">
-        <v>1.7850149475375399E-11</v>
-      </c>
-      <c r="AG14">
-        <v>6.0016631025539998E-7</v>
-      </c>
-      <c r="AH14">
-        <v>5.5815038401467501E-10</v>
-      </c>
-      <c r="AI14">
-        <v>6.7561040554158698E-8</v>
-      </c>
-      <c r="AJ14">
-        <v>1.43344943391468E-5</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>1.62504205085615E-31</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>6.5032801051303698E-24</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>1.2536855390861099E-6</v>
-      </c>
-      <c r="AN14">
-        <v>5.32480869204475E-9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1.046842253746E-3</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>5.8165879943243001E-21</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>5.1994710458497399E-14</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2128,88 +1896,70 @@
         <v>9.4695622794345303E-11</v>
       </c>
       <c r="N15" s="1">
-        <v>3.4558008500356002E-38</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>1.17224240828932E-14</v>
+        <v>3.5218809196421803E-14</v>
       </c>
       <c r="P15">
-        <v>7.4316603539550802E-2</v>
+        <v>0.26974378292059997</v>
       </c>
       <c r="Q15">
-        <v>0.13062582539481299</v>
+        <v>0.262056356459205</v>
       </c>
       <c r="R15">
-        <v>3.3763761374366603E-2</v>
+        <v>0.91203360530448396</v>
       </c>
       <c r="S15">
-        <v>2.7290552030385198E-3</v>
+        <v>0.761172448677925</v>
       </c>
       <c r="T15" s="1">
-        <v>7.3287707626490105E-7</v>
+        <v>4.1741571633514103E-5</v>
       </c>
       <c r="U15" s="1">
-        <v>4.4040228528108301E-5</v>
+        <v>3.12435112115008E-6</v>
       </c>
       <c r="V15" s="1">
-        <v>1.18363527746336E-4</v>
+        <v>1.5671535511977301E-5</v>
       </c>
       <c r="W15">
-        <v>0.14234995275429599</v>
+        <v>0.24830519629106901</v>
       </c>
       <c r="X15">
-        <v>0.96976475911352</v>
+        <v>8.7258536954498798E-4</v>
       </c>
       <c r="Y15" s="1">
-        <v>2.4046363020942599E-6</v>
-      </c>
-      <c r="Z15">
-        <v>2.3958108735854199E-2</v>
+        <v>0.77150590222138105</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>3.2200450184918602E-7</v>
       </c>
       <c r="AA15">
-        <v>0.81092650541552003</v>
+        <v>0.40249382686310398</v>
       </c>
       <c r="AB15">
-        <v>0.22653939114923699</v>
-      </c>
-      <c r="AC15">
-        <v>0.52362693490354095</v>
+        <v>0.56320941287514603</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1.57208206958715E-15</v>
       </c>
       <c r="AD15" s="1">
-        <v>1.25715491949925E-6</v>
+        <v>4.0427661883996003E-3</v>
       </c>
       <c r="AE15">
-        <v>0.47447603595504001</v>
+        <v>0.139717082805459</v>
       </c>
       <c r="AF15">
-        <v>0.71292649622645798</v>
+        <v>0.58853908559282198</v>
       </c>
       <c r="AG15" s="1">
-        <v>3.2185631405037399E-6</v>
+        <v>1.2323133746772999E-4</v>
       </c>
       <c r="AH15">
-        <v>0.98127220368087897</v>
-      </c>
-      <c r="AI15">
-        <v>0.925841653525035</v>
-      </c>
-      <c r="AJ15">
-        <v>3.3530537422135E-2</v>
-      </c>
-      <c r="AK15">
-        <v>1.2503924882000001E-3</v>
-      </c>
-      <c r="AL15">
-        <v>3.6266418360203999E-3</v>
-      </c>
-      <c r="AM15">
-        <v>8.98639276503687E-3</v>
-      </c>
-      <c r="AN15">
-        <v>0.164895022892842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+        <v>3.4953019834605701E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2247,89 +1997,73 @@
         <v>6.9393479987941802E-22</v>
       </c>
       <c r="M16" s="1">
-        <v>1.83529170314272E-35</v>
+        <v>1.8352917031427801E-35</v>
       </c>
       <c r="N16" s="1">
         <v>3.5218809196421803E-14</v>
       </c>
       <c r="O16" s="1">
-        <v>9.2956203751354196E-58</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2.5966324346157101E-7</v>
+        <v>0.27891968661156602</v>
       </c>
       <c r="Q16">
-        <v>7.5204373069522803E-8</v>
+        <v>0.658733695318654</v>
       </c>
       <c r="R16" s="1">
-        <v>2.8703390611149999E-21</v>
+        <v>5.9497321438124898E-3</v>
       </c>
       <c r="S16">
-        <v>0.16164933345902999</v>
+        <v>0.966182685841244</v>
       </c>
       <c r="T16" s="1">
-        <v>5.6590453412334597E-25</v>
+        <v>2.84056967273571E-15</v>
       </c>
       <c r="U16" s="1">
-        <v>3.5687946140177799E-30</v>
+        <v>1.00094160915587E-16</v>
       </c>
       <c r="V16" s="1">
-        <v>6.0699727578369701E-27</v>
-      </c>
-      <c r="W16">
-        <v>0.65737905865734503</v>
-      </c>
-      <c r="X16">
-        <v>1.4078278397492001E-2</v>
-      </c>
-      <c r="Y16">
-        <v>4.1005660168583701E-4</v>
+        <v>2.6569951435161499E-15</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2.62338161338229E-8</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.78240090838062E-5</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>4.4999761562451801E-9</v>
       </c>
       <c r="Z16" s="1">
-        <v>3.7582255845059398E-4</v>
+        <v>1.6684771073035399E-13</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.6507142825655698E-14</v>
+        <v>0.40249636964563201</v>
       </c>
       <c r="AB16" s="1">
-        <v>2.6721396533612301E-10</v>
+        <v>0.30761469231469601</v>
       </c>
       <c r="AC16" s="1">
-        <v>7.7372712749260807E-15</v>
+        <v>7.9279846641818599E-7</v>
       </c>
       <c r="AD16" s="1">
-        <v>2.7157597633291201E-19</v>
+        <v>3.5832071333362801E-3</v>
       </c>
       <c r="AE16">
-        <v>1.5083448414147899E-9</v>
+        <v>8.3695409978615201E-2</v>
       </c>
       <c r="AF16">
-        <v>7.0403709089533504E-12</v>
+        <v>0.21135551145236101</v>
       </c>
       <c r="AG16" s="1">
-        <v>4.4845030597511598E-15</v>
-      </c>
-      <c r="AH16">
-        <v>5.3971679778403001E-13</v>
-      </c>
-      <c r="AI16">
-        <v>2.3311605012350799E-10</v>
-      </c>
-      <c r="AJ16">
-        <v>1.03092506706852E-5</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>3.5140885335305499E-25</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>1.55216550156587E-18</v>
-      </c>
-      <c r="AM16">
-        <v>1.9155209235852499E-3</v>
-      </c>
-      <c r="AN16">
-        <v>3.0481251270037898E-7</v>
-      </c>
+        <v>7.0220909353591296E-10</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1.24224625336421E-7</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2339,7 +2073,7 @@
         <v>0.44513315884070598</v>
       </c>
       <c r="C17">
-        <v>0.27012666056569101</v>
+        <v>0.27012666056569501</v>
       </c>
       <c r="D17">
         <v>0.114681399781538</v>
@@ -2378,79 +2112,61 @@
         <v>0.27891968661156602</v>
       </c>
       <c r="P17" s="1">
-        <v>5.9193406449054298E-5</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.3877411699425897E-122</v>
+        <v>8.7760574970042801E-77</v>
       </c>
       <c r="R17">
-        <v>8.4548948813835103E-16</v>
+        <v>0.22789746176754999</v>
       </c>
       <c r="S17">
-        <v>2.0076029646307499E-21</v>
+        <v>1.1373691474298399E-2</v>
       </c>
       <c r="T17">
-        <v>6.6049780025853704E-3</v>
+        <v>0.130818958932439</v>
       </c>
       <c r="U17">
-        <v>3.1235773837467302E-16</v>
+        <v>0.627169499429855</v>
       </c>
       <c r="V17" s="1">
-        <v>3.1125748727768902E-17</v>
+        <v>0.62040404828571605</v>
       </c>
       <c r="W17" s="1">
-        <v>4.3422439692404798E-7</v>
+        <v>0.77652276127361097</v>
       </c>
       <c r="X17" s="1">
-        <v>4.2721392412297401E-7</v>
+        <v>0.86922382302755596</v>
       </c>
       <c r="Y17">
-        <v>9.3676867396850908E-6</v>
+        <v>0.140133883825665</v>
       </c>
       <c r="Z17">
-        <v>0.570466458296499</v>
+        <v>0.10940710842613501</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.0234814902299101E-32</v>
+        <v>0.50827799607523205</v>
       </c>
       <c r="AB17">
-        <v>4.3533076547684302E-21</v>
+        <v>0.88373703678211402</v>
       </c>
       <c r="AC17">
-        <v>3.9566692216567499E-8</v>
+        <v>0.72096040926279203</v>
       </c>
       <c r="AD17">
-        <v>4.5941850215742199E-4</v>
+        <v>0.19237362570872099</v>
       </c>
       <c r="AE17">
-        <v>2.1512983897291001E-50</v>
+        <v>0.184720860288903</v>
       </c>
       <c r="AF17">
-        <v>4.6499458961071499E-66</v>
+        <v>0.25561706227643499</v>
       </c>
       <c r="AG17">
-        <v>2.6127819011835001E-21</v>
+        <v>0.45663071328896299</v>
       </c>
       <c r="AH17">
-        <v>1.8590105577397801E-54</v>
-      </c>
-      <c r="AI17">
-        <v>9.3048379690607405E-51</v>
-      </c>
-      <c r="AJ17">
-        <v>5.8529793135796403E-74</v>
-      </c>
-      <c r="AK17">
-        <v>1.28576703718754E-18</v>
-      </c>
-      <c r="AL17">
-        <v>7.9006419445478393E-15</v>
-      </c>
-      <c r="AM17">
-        <v>0.117377201940929</v>
-      </c>
-      <c r="AN17">
-        <v>6.9692375583269998E-30</v>
+        <v>0.38462030027462102</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -2503,76 +2219,58 @@
         <v>8.7760574970042801E-77</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.7003076858201797E-9</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>9.5538118548293698E-20</v>
+        <v>2.3672553566699998E-2</v>
       </c>
       <c r="S18">
-        <v>3.0319412232503698E-19</v>
+        <v>2.12563862521153E-2</v>
       </c>
       <c r="T18">
-        <v>9.1755939507442794E-3</v>
+        <v>0.159988737736591</v>
       </c>
       <c r="U18" s="1">
-        <v>1.1571595505697499E-17</v>
+        <v>0.28842875725850398</v>
       </c>
       <c r="V18" s="1">
-        <v>2.8248053976443999E-18</v>
+        <v>0.29424457288570599</v>
       </c>
       <c r="W18" s="1">
-        <v>7.9834845976222406E-8</v>
+        <v>0.245479283356831</v>
       </c>
       <c r="X18" s="1">
-        <v>7.8582972015605996E-6</v>
+        <v>0.81199672606585105</v>
       </c>
       <c r="Y18">
-        <v>6.6732407944367398E-6</v>
+        <v>0.21135989692836299</v>
       </c>
       <c r="Z18">
-        <v>0.285195974264773</v>
+        <v>9.1186222868940695E-2</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.9826475568127795E-33</v>
+        <v>0.20812979698258399</v>
       </c>
       <c r="AB18">
-        <v>1.0401851677381601E-17</v>
+        <v>0.68847629432102797</v>
       </c>
       <c r="AC18">
-        <v>2.8201660487592E-7</v>
+        <v>0.59617482507390396</v>
       </c>
       <c r="AD18">
-        <v>1.6757871221404501E-3</v>
+        <v>0.32166289173797202</v>
       </c>
       <c r="AE18">
-        <v>2.4285054272410201E-45</v>
+        <v>3.4579228897788299E-2</v>
       </c>
       <c r="AF18">
-        <v>1.6547964640218199E-54</v>
+        <v>9.74336673175836E-2</v>
       </c>
       <c r="AG18">
-        <v>4.2039480892310998E-24</v>
+        <v>0.32424158742047499</v>
       </c>
       <c r="AH18">
-        <v>6.0891176774245798E-54</v>
-      </c>
-      <c r="AI18">
-        <v>2.0150112499140301E-53</v>
-      </c>
-      <c r="AJ18">
-        <v>2.7591569488758799E-55</v>
-      </c>
-      <c r="AK18">
-        <v>3.9316112521716902E-20</v>
-      </c>
-      <c r="AL18">
-        <v>4.9152649431227903E-15</v>
-      </c>
-      <c r="AM18">
-        <v>3.2203770641522897E-2</v>
-      </c>
-      <c r="AN18">
-        <v>7.9349484010079901E-28</v>
+        <v>0.27293533199502101</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -2583,7 +2281,7 @@
         <v>0.25746239195033999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.23234661667096301</v>
+        <v>0.23234661667095999</v>
       </c>
       <c r="D19">
         <v>0.48594339578735801</v>
@@ -2598,7 +2296,7 @@
         <v>0.71053696695458302</v>
       </c>
       <c r="H19">
-        <v>0.71823881685619495</v>
+        <v>0.71823881685618696</v>
       </c>
       <c r="I19">
         <v>0.86359722454605403</v>
@@ -2613,7 +2311,7 @@
         <v>5.9210650791676797E-2</v>
       </c>
       <c r="M19" s="1">
-        <v>3.9692709470780596E-3</v>
+        <v>3.9692709470780102E-3</v>
       </c>
       <c r="N19">
         <v>0.91203360530448396</v>
@@ -2628,74 +2326,57 @@
         <v>2.3672553566699998E-2</v>
       </c>
       <c r="R19" s="1">
-        <v>2.4582597690467798E-22</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.23646039073574299</v>
+        <v>0.124035821147852</v>
       </c>
       <c r="T19">
-        <v>6.6530188790953096E-16</v>
+        <v>4.2715867637392897E-3</v>
       </c>
       <c r="U19" s="1">
-        <v>3.9498135192841198E-33</v>
+        <v>2.48572587739728E-4</v>
       </c>
       <c r="V19" s="1">
-        <v>5.4535393698746404E-25</v>
+        <v>1.00087551443837E-3</v>
       </c>
       <c r="W19">
-        <v>5.3809415650669302E-2</v>
+        <v>9.1800444315171398E-2</v>
       </c>
       <c r="X19">
-        <v>1.25907167658851E-2</v>
+        <v>0.96073263313769797</v>
       </c>
       <c r="Y19">
-        <v>0.695250624558438</v>
+        <v>2.6830788648441298E-2</v>
       </c>
       <c r="Z19">
-        <v>0.11708613514242799</v>
+        <v>2.1682690166737201E-2</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.58231658584363E-27</v>
+        <v>0.69844286794671295</v>
       </c>
       <c r="AB19">
-        <v>1.4366478176476501E-12</v>
+        <v>0.51656146688789095</v>
       </c>
       <c r="AC19">
-        <v>4.4575789426715701E-15</v>
+        <v>0.59490320454552703</v>
       </c>
       <c r="AD19">
-        <v>1.2770945892734699E-13</v>
+        <v>0.90179073878147398</v>
       </c>
       <c r="AE19">
-        <v>4.2134527805198099E-21</v>
+        <v>0.79832282225401896</v>
       </c>
       <c r="AF19">
-        <v>8.4895309298180699E-20</v>
+        <v>6.7416309861623502E-2</v>
       </c>
       <c r="AG19">
-        <v>4.16190400659443E-15</v>
+        <v>1.2419106537691E-3</v>
       </c>
       <c r="AH19">
-        <v>3.6061510966531699E-25</v>
-      </c>
-      <c r="AI19">
-        <v>8.9918113578078696E-25</v>
-      </c>
-      <c r="AJ19">
-        <v>1.072649311212E-10</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>5.3090161782861299E-38</v>
-      </c>
-      <c r="AL19">
-        <v>6.3785403279882604E-23</v>
-      </c>
-      <c r="AM19">
-        <v>0.60391975907946405</v>
-      </c>
-      <c r="AN19">
-        <v>9.0572370385437194E-19</v>
-      </c>
+        <v>5.7048448955427603E-3</v>
+      </c>
+      <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2753,70 +2434,52 @@
         <v>0.124035821147852</v>
       </c>
       <c r="S20" s="1">
-        <v>8.4007092878084196E-20</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.26865782585174902</v>
+        <v>0.51236587507023801</v>
       </c>
       <c r="U20">
-        <v>9.1136886882221997E-3</v>
+        <v>0.87471770510197</v>
       </c>
       <c r="V20">
-        <v>3.2452867622440599E-4</v>
+        <v>0.82794898910057702</v>
       </c>
       <c r="W20">
-        <v>1.27514789341004E-2</v>
+        <v>0.765185381398098</v>
       </c>
       <c r="X20">
-        <v>7.6329296408048702E-3</v>
+        <v>0.89484360912014405</v>
       </c>
       <c r="Y20">
-        <v>5.0694037357837396E-4</v>
+        <v>0.363849412047133</v>
       </c>
       <c r="Z20">
-        <v>0.49397898090161702</v>
+        <v>0.70162889376595505</v>
       </c>
       <c r="AA20">
-        <v>8.0449307028091903E-5</v>
+        <v>0.31710494188124</v>
       </c>
       <c r="AB20">
-        <v>8.3027855112697004E-5</v>
+        <v>0.91920629634125595</v>
       </c>
       <c r="AC20">
-        <v>0.29244204010716901</v>
+        <v>0.75074345036648704</v>
       </c>
       <c r="AD20">
-        <v>0.73256525236199899</v>
+        <v>0.3157978388264</v>
       </c>
       <c r="AE20">
-        <v>2.7267304072453001E-8</v>
+        <v>0.36952512174938101</v>
       </c>
       <c r="AF20">
-        <v>2.3492472627449698E-13</v>
+        <v>0.69005390430490698</v>
       </c>
       <c r="AG20">
-        <v>4.6715017148580999E-5</v>
+        <v>0.73248376958207895</v>
       </c>
       <c r="AH20">
-        <v>2.5100428798887098E-12</v>
-      </c>
-      <c r="AI20">
-        <v>3.1801921580751299E-8</v>
-      </c>
-      <c r="AJ20">
-        <v>1.6366056824432601E-18</v>
-      </c>
-      <c r="AK20">
-        <v>0.12767326983591401</v>
-      </c>
-      <c r="AL20">
-        <v>0.20684923112154499</v>
-      </c>
-      <c r="AM20">
-        <v>0.27423974802571299</v>
-      </c>
-      <c r="AN20">
-        <v>1.83420609777714E-4</v>
+        <v>0.718304858813818</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -2848,13 +2511,13 @@
         <v>0.92130317158425501</v>
       </c>
       <c r="J21">
-        <v>0.47096548681064698</v>
+        <v>0.47096548681064299</v>
       </c>
       <c r="K21">
         <v>0.691801798532657</v>
       </c>
       <c r="L21" s="1">
-        <v>2.21669200597569E-24</v>
+        <v>2.2166920059757499E-24</v>
       </c>
       <c r="M21" s="1">
         <v>1.1620593990426501E-37</v>
@@ -2878,68 +2541,53 @@
         <v>0.51236587507023801</v>
       </c>
       <c r="T21" s="1">
-        <v>4.7411005351961803E-45</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>7.0231111866888203E-43</v>
+        <v>4.5379608149468802E-33</v>
       </c>
       <c r="V21" s="1">
-        <v>3.4555532121673799E-35</v>
-      </c>
-      <c r="W21">
-        <v>0.100345990359419</v>
+        <v>3.2977024095027298E-25</v>
+      </c>
+      <c r="W21" s="1">
+        <v>4.7507081573763799E-6</v>
       </c>
       <c r="X21">
-        <v>1.61052049393439E-3</v>
-      </c>
-      <c r="Y21">
-        <v>2.39051534555781E-3</v>
+        <v>1.0604988673697701E-4</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>3.9754735635921499E-18</v>
       </c>
       <c r="Z21" s="1">
-        <v>5.6255548899124297E-7</v>
+        <v>9.4133316349838697E-36</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.3300359318965501E-13</v>
+        <v>9.6458514980271998E-3</v>
       </c>
       <c r="AB21" s="1">
-        <v>1.4948404479797E-15</v>
+        <v>0.147301918518737</v>
       </c>
       <c r="AC21" s="1">
-        <v>3.3679451993629798E-35</v>
+        <v>1.7241771541568401E-2</v>
       </c>
       <c r="AD21" s="1">
-        <v>5.7920354582674202E-49</v>
+        <v>8.7444708732512005E-2</v>
       </c>
       <c r="AE21">
-        <v>9.6681358973629994E-8</v>
-      </c>
-      <c r="AF21">
-        <v>2.65659582991676E-6</v>
-      </c>
-      <c r="AG21">
-        <v>2.8660460025790899E-2</v>
-      </c>
-      <c r="AH21">
-        <v>4.8888356336092504E-4</v>
-      </c>
-      <c r="AI21">
-        <v>1.3395703889089599E-4</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>6.67025531396558E-3</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>5.5440822183777397E-33</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>6.90424981179653E-29</v>
-      </c>
-      <c r="AM21">
-        <v>7.5353691411251598E-6</v>
-      </c>
-      <c r="AN21">
-        <v>1.3755984421431E-8</v>
-      </c>
+        <v>0.39496193607506602</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>1.0139602697929E-5</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1.0829413675603101E-25</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>4.2035992852233902E-17</v>
+      </c>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3003,75 +2651,59 @@
         <v>4.5379608149468802E-33</v>
       </c>
       <c r="U22" s="1">
-        <v>1.55530659708879E-40</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>2.8524314091923E-122</v>
-      </c>
-      <c r="W22">
-        <v>0.221940844003158</v>
+        <v>1.03643525726369E-98</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1.2535956436782799E-8</v>
       </c>
       <c r="X22" s="1">
-        <v>2.9519853589115301E-5</v>
-      </c>
-      <c r="Y22">
-        <v>0.76107972930014001</v>
-      </c>
-      <c r="Z22">
-        <v>2.8064751150945898E-3</v>
+        <v>2.5626513631073999E-6</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>3.3801922307031997E-14</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>9.0392371740538502E-33</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.5342841094362502E-32</v>
+        <v>0.13521064553217099</v>
       </c>
       <c r="AB22" s="1">
-        <v>1.38076915585135E-27</v>
+        <v>0.81716905369978599</v>
       </c>
       <c r="AC22" s="1">
-        <v>3.9583730455006598E-33</v>
+        <v>7.16602374944031E-4</v>
       </c>
       <c r="AD22" s="1">
-        <v>2.6476660900201999E-40</v>
+        <v>0.23643583729407699</v>
       </c>
       <c r="AE22">
-        <v>8.7555627927768501E-23</v>
+        <v>0.41073201166483497</v>
       </c>
       <c r="AF22">
-        <v>8.1800195732534694E-21</v>
-      </c>
-      <c r="AG22">
-        <v>7.1248654471834997E-10</v>
-      </c>
-      <c r="AH22">
-        <v>3.6217201171513602E-17</v>
-      </c>
-      <c r="AI22">
-        <v>2.6797049782000099E-19</v>
-      </c>
-      <c r="AJ22">
-        <v>1.14085838070668E-12</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>8.7195873656615801E-70</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>1.7202235998988098E-49</v>
-      </c>
-      <c r="AM22">
-        <v>4.0063395431429297E-2</v>
-      </c>
-      <c r="AN22">
-        <v>3.1427343837999099E-20</v>
-      </c>
+        <v>1.04682568783688E-3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1.7831459015286299E-50</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>7.9472646156881294E-33</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>6.1428175684924895E-8</v>
+        <v>6.1428175684925094E-8</v>
       </c>
       <c r="C23" s="1">
-        <v>1.98102780675886E-9</v>
+        <v>1.9810278067588302E-9</v>
       </c>
       <c r="D23">
         <v>0.122597533178102</v>
@@ -3101,7 +2733,7 @@
         <v>4.8972746629666001E-20</v>
       </c>
       <c r="M23" s="1">
-        <v>2.16329923630193E-28</v>
+        <v>2.1632992363018601E-28</v>
       </c>
       <c r="N23" s="1">
         <v>1.5671535511977301E-5</v>
@@ -3128,2258 +2760,1414 @@
         <v>1.03643525726369E-98</v>
       </c>
       <c r="V23" s="1">
-        <v>1.0258912375811199E-46</v>
-      </c>
-      <c r="W23">
-        <v>0.26270864997275001</v>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1.9287200060180501E-7</v>
       </c>
       <c r="X23" s="1">
-        <v>2.9140868002562502E-5</v>
-      </c>
-      <c r="Y23">
-        <v>0.96073310993769501</v>
-      </c>
-      <c r="Z23">
-        <v>3.8324883405958798E-3</v>
+        <v>7.8694898383463496E-6</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2.1675727819868801E-13</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>2.27294999068287E-25</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.5095320620377199E-29</v>
+        <v>9.7639642663338494E-2</v>
       </c>
       <c r="AB23" s="1">
-        <v>6.1499739464332801E-27</v>
+        <v>0.98848248408948303</v>
       </c>
       <c r="AC23" s="1">
-        <v>9.6575208925805106E-30</v>
+        <v>2.9192930921511599E-3</v>
       </c>
       <c r="AD23" s="1">
-        <v>3.58249772321904E-34</v>
+        <v>0.30204930365571098</v>
       </c>
       <c r="AE23">
-        <v>9.3617097751317E-22</v>
+        <v>0.65953337942372003</v>
       </c>
       <c r="AF23">
-        <v>3.8277998230887397E-21</v>
-      </c>
-      <c r="AG23">
-        <v>2.8950605383529499E-9</v>
-      </c>
-      <c r="AH23">
-        <v>5.4717137027940201E-17</v>
-      </c>
-      <c r="AI23">
-        <v>5.0371655603120203E-18</v>
-      </c>
-      <c r="AJ23">
-        <v>5.72848530050023E-14</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>7.0282240068981696E-55</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>7.3731936917830695E-46</v>
-      </c>
-      <c r="AM23">
-        <v>4.3377233977385597E-2</v>
-      </c>
-      <c r="AN23">
-        <v>2.73279543417666E-18</v>
-      </c>
+        <v>4.5931913128474302E-3</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>9.6307614442620701E-40</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>4.5310619969961099E-35</v>
+      </c>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>0.46068734677800399</v>
-      </c>
-      <c r="C24">
-        <v>0.12837815891450899</v>
+      <c r="B24" s="1">
+        <v>7.4232035474159203E-37</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.5294642724842602E-23</v>
       </c>
       <c r="D24" s="1">
-        <v>1.22698652001928E-4</v>
-      </c>
-      <c r="E24">
-        <v>0.32013382041107602</v>
+        <v>0.29069634518315701</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.2139606368845299E-12</v>
       </c>
       <c r="F24">
-        <v>2.3533775974686501E-2</v>
+        <v>5.2808239940402998E-2</v>
       </c>
       <c r="G24">
-        <v>0.152661963930739</v>
+        <v>0.20186168665451801</v>
       </c>
       <c r="H24">
-        <v>0.135041890691872</v>
+        <v>0.77866802119586498</v>
       </c>
       <c r="I24">
-        <v>0.125114596557615</v>
-      </c>
-      <c r="J24">
-        <v>0.50461107231904301</v>
+        <v>6.9963080490047194E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8.7216900671310604E-5</v>
       </c>
       <c r="K24">
-        <v>0.23849446033999899</v>
-      </c>
-      <c r="L24">
-        <v>8.7301194501585203E-2</v>
-      </c>
-      <c r="M24">
-        <v>5.30261535166121E-2</v>
+        <v>2.5402714703420598E-4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6.3255256230961003E-9</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.20541145028154E-11</v>
       </c>
       <c r="N24">
-        <v>0.221960436684699</v>
-      </c>
-      <c r="O24">
-        <v>0.230584909330769</v>
+        <v>0.24830519629106901</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2.62338161338229E-8</v>
       </c>
       <c r="P24">
-        <v>0.25839675391382499</v>
+        <v>0.77652276127361097</v>
       </c>
       <c r="Q24">
-        <v>0.139343245146447</v>
+        <v>0.245479283356831</v>
       </c>
       <c r="R24">
-        <v>0.31161903274939301</v>
+        <v>9.1800444315171398E-2</v>
       </c>
       <c r="S24">
-        <v>0.54704266520275902</v>
-      </c>
-      <c r="T24">
-        <v>0.165444012513599</v>
-      </c>
-      <c r="U24">
-        <v>0.98064442479740999</v>
-      </c>
-      <c r="V24">
-        <v>0.98095455402752596</v>
+        <v>0.765185381398098</v>
+      </c>
+      <c r="T24" s="1">
+        <v>4.7507081573763799E-6</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1.2535956436782799E-8</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1.9287200060180501E-7</v>
       </c>
       <c r="W24" s="1">
-        <v>6.0905300343363601E-212</v>
-      </c>
-      <c r="X24">
-        <v>3.5829551053232198E-3</v>
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>3.0599316747925602E-17</v>
       </c>
       <c r="Y24" s="1">
-        <v>6.1847201447460196E-35</v>
+        <v>3.85489145597325E-10</v>
       </c>
       <c r="Z24" s="1">
-        <v>2.1968864842771698E-22</v>
-      </c>
-      <c r="AA24">
-        <v>1.43929491299061E-5</v>
-      </c>
-      <c r="AB24">
-        <v>0.89048480852460299</v>
+        <v>9.81605781923815E-10</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>4.7481925076190601E-13</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>2.8968633449868002E-10</v>
       </c>
       <c r="AC24">
-        <v>0.73909000828263705</v>
+        <v>2.22733255584057E-2</v>
       </c>
       <c r="AD24">
-        <v>7.5646860791229301E-2</v>
-      </c>
-      <c r="AE24">
-        <v>1.0899898578085501E-5</v>
+        <v>4.9041781133450004E-3</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>5.48562868405814E-33</v>
       </c>
       <c r="AF24">
-        <v>3.2266136307941501E-3</v>
+        <v>4.9018909372153599E-4</v>
       </c>
       <c r="AG24">
-        <v>1.1792555043335999E-8</v>
+        <v>1.2133042195855499E-3</v>
       </c>
       <c r="AH24">
-        <v>2.3025318579462801E-4</v>
-      </c>
-      <c r="AI24">
-        <v>9.2486641984021301E-10</v>
-      </c>
-      <c r="AJ24">
-        <v>5.1983468001702104E-4</v>
-      </c>
-      <c r="AK24">
-        <v>9.4821271890420198E-3</v>
-      </c>
-      <c r="AL24">
-        <v>1.1424187747455E-2</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>6.8020590900553598E-33</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>1.8337908368247199E-8</v>
-      </c>
+        <v>3.32225708240299E-2</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>1.2446559693866699E-4</v>
+      <c r="B25" s="1">
+        <v>4.5687193026661001E-25</v>
       </c>
       <c r="C25" s="1">
-        <v>4.9375389865459802E-5</v>
-      </c>
-      <c r="D25">
-        <v>0.26225936737521899</v>
-      </c>
-      <c r="E25">
-        <v>6.95100921189277E-3</v>
+        <v>6.5652380065540496E-62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.0197417121876399E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.2622283007164603E-8</v>
       </c>
       <c r="F25">
-        <v>0.33492535179792299</v>
+        <v>3.6443489616022298E-2</v>
       </c>
       <c r="G25">
-        <v>0.200668049440857</v>
+        <v>0.37283163554226001</v>
       </c>
       <c r="H25">
-        <v>0.124209432250294</v>
+        <v>0.47569142626869598</v>
       </c>
       <c r="I25">
-        <v>0.12781814997539601</v>
-      </c>
-      <c r="J25">
-        <v>0.307659221338137</v>
-      </c>
-      <c r="K25">
-        <v>0.87751400303556504</v>
-      </c>
-      <c r="L25">
-        <v>1.03411414705675E-2</v>
-      </c>
-      <c r="M25">
-        <v>1.56006516141734E-3</v>
+        <v>0.56679037560817003</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6.1562285797428704E-7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.7417771119867501E-6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2.01393144916465E-8</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.1891424686363901E-11</v>
       </c>
       <c r="N25">
-        <v>0.41200059364321701</v>
-      </c>
-      <c r="O25">
-        <v>1.0615312055877801E-2</v>
+        <v>8.7258536954498798E-4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2.78240090838062E-5</v>
       </c>
       <c r="P25">
-        <v>0.47310177871327003</v>
+        <v>0.86922382302755596</v>
       </c>
       <c r="Q25">
-        <v>0.302075829700164</v>
+        <v>0.81199672606585105</v>
       </c>
       <c r="R25">
-        <v>0.398139200384452</v>
+        <v>0.96073263313769797</v>
       </c>
       <c r="S25">
-        <v>0.59830816860579905</v>
+        <v>0.89484360912014405</v>
       </c>
       <c r="T25">
-        <v>1.8703366459318999E-2</v>
-      </c>
-      <c r="U25">
-        <v>1.32699983525271E-3</v>
-      </c>
-      <c r="V25">
-        <v>1.43059549970734E-3</v>
-      </c>
-      <c r="W25">
-        <v>8.3187818024849404E-3</v>
+        <v>1.0604988673697701E-4</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2.5626513631073999E-6</v>
+      </c>
+      <c r="V25" s="1">
+        <v>7.8694898383463496E-6</v>
+      </c>
+      <c r="W25" s="1">
+        <v>3.0599316747925602E-17</v>
       </c>
       <c r="X25" s="1">
-        <v>2.9936407644542899E-239</v>
-      </c>
-      <c r="Y25">
-        <v>0.1727450558543</v>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>3.1087768270445202E-5</v>
       </c>
       <c r="Z25" s="1">
-        <v>5.9785756715878704E-12</v>
+        <v>8.3404760096308499E-12</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.7803844665718901E-11</v>
-      </c>
-      <c r="AB25">
-        <v>1.36026447952103E-8</v>
+        <v>2.26447537388219E-8</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1.4290126077045099E-33</v>
       </c>
       <c r="AC25">
-        <v>2.4563445574323299E-5</v>
+        <v>0.52042321030107797</v>
       </c>
       <c r="AD25">
-        <v>1.2551969179333799E-4</v>
-      </c>
-      <c r="AE25">
-        <v>1.4464795903435101E-10</v>
-      </c>
-      <c r="AF25">
-        <v>1.4143895479783001E-7</v>
+        <v>2.23035747804993E-2</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>3.3590939562156798E-8</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1.23500804113368E-24</v>
       </c>
       <c r="AG25">
-        <v>4.0449000533698499E-3</v>
+        <v>6.5126417232795997E-2</v>
       </c>
       <c r="AH25">
-        <v>5.2886000418181497E-4</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>6.4722410074287998E-10</v>
-      </c>
-      <c r="AJ25">
-        <v>4.6991164108853997E-8</v>
-      </c>
-      <c r="AK25">
-        <v>3.5409753810081201E-6</v>
-      </c>
-      <c r="AL25">
-        <v>3.72404721389382E-7</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>1.61509286149872E-8</v>
-      </c>
-      <c r="AN25">
-        <v>8.9411090678750597E-13</v>
-      </c>
+        <v>0.39055338192883998</v>
+      </c>
+      <c r="AI25" s="1"/>
+      <c r="AM25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>4.4631729899276698E-3</v>
-      </c>
-      <c r="C26">
-        <v>2.6763553812929699E-4</v>
+      <c r="B26" s="1">
+        <v>1.6976053130827799E-8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.06469205447891E-7</v>
       </c>
       <c r="D26" s="1">
-        <v>1.9187406316635402E-5</v>
-      </c>
-      <c r="E26">
-        <v>1.1781784507608299E-3</v>
+        <v>0.38092665639784801</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.3168645065952401E-6</v>
       </c>
       <c r="F26">
-        <v>2.4857976814127498E-2</v>
+        <v>2.4229439781481399E-2</v>
       </c>
       <c r="G26">
-        <v>0.35085954721871399</v>
+        <v>0.94096517117419598</v>
       </c>
       <c r="H26">
-        <v>3.0174701282304501E-2</v>
+        <v>0.68488058120114004</v>
       </c>
       <c r="I26">
-        <v>2.4725662037407298E-2</v>
+        <v>0.56539390214913698</v>
       </c>
       <c r="J26">
-        <v>0.16102681917009301</v>
+        <v>4.2554829614631202E-2</v>
       </c>
       <c r="K26">
-        <v>1.3538112065066801E-2</v>
+        <v>0.23422609143777601</v>
       </c>
       <c r="L26" s="1">
-        <v>7.6246804519869196E-5</v>
+        <v>1.6935454215346501E-41</v>
       </c>
       <c r="M26" s="1">
-        <v>2.3281267551867999E-5</v>
+        <v>3.3349915520063101E-25</v>
       </c>
       <c r="N26">
-        <v>2.0067933040188901E-3</v>
-      </c>
-      <c r="O26">
-        <v>1.4940285620005999E-4</v>
+        <v>0.77150590222138105</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4.4999761562451801E-9</v>
       </c>
       <c r="P26">
-        <v>6.8468208845308007E-2</v>
+        <v>0.140133883825665</v>
       </c>
       <c r="Q26">
-        <v>5.2214050884120899E-2</v>
+        <v>0.21135989692836299</v>
       </c>
       <c r="R26">
-        <v>0.30878041463471301</v>
+        <v>2.6830788648441298E-2</v>
       </c>
       <c r="S26">
-        <v>0.308854728171293</v>
-      </c>
-      <c r="T26">
-        <v>5.0169958267385004E-3</v>
-      </c>
-      <c r="U26">
-        <v>0.15764294387880501</v>
-      </c>
-      <c r="V26">
-        <v>0.30588291733101203</v>
+        <v>0.363849412047133</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3.9754735635921499E-18</v>
+      </c>
+      <c r="U26" s="1">
+        <v>3.3801922307031997E-14</v>
+      </c>
+      <c r="V26" s="1">
+        <v>2.1675727819868801E-13</v>
       </c>
       <c r="W26" s="1">
-        <v>7.5342646912801805E-32</v>
-      </c>
-      <c r="X26">
-        <v>0.667472968061531</v>
+        <v>3.85489145597325E-10</v>
+      </c>
+      <c r="X26" s="1">
+        <v>3.1087768270445202E-5</v>
       </c>
       <c r="Y26" s="1">
-        <v>2.58538292228103E-114</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>1.14812376173643E-24</v>
+        <v>5.1014865162697099E-27</v>
       </c>
       <c r="AA26">
-        <v>8.0775101814965205E-3</v>
+        <v>1.9647562073738401E-4</v>
       </c>
       <c r="AB26">
-        <v>0.453628885775061</v>
+        <v>0.68615541942809499</v>
       </c>
       <c r="AC26">
-        <v>0.18384982780766199</v>
+        <v>0.253599966766409</v>
       </c>
       <c r="AD26">
-        <v>4.7316318497264199E-4</v>
+        <v>0.99619648371310199</v>
       </c>
       <c r="AE26">
-        <v>2.9462306324330397E-4</v>
+        <v>2.1135299331126998E-3</v>
       </c>
       <c r="AF26">
-        <v>7.7585855494477093E-2</v>
-      </c>
-      <c r="AG26">
-        <v>1.24034462088006E-2</v>
-      </c>
-      <c r="AH26">
-        <v>9.0407034788720197E-2</v>
-      </c>
-      <c r="AI26">
-        <v>1.9950810429695599E-5</v>
-      </c>
-      <c r="AJ26">
-        <v>2.0869444043000699E-3</v>
-      </c>
-      <c r="AK26">
-        <v>0.213208057139677</v>
-      </c>
-      <c r="AL26">
-        <v>3.6986074197854303E-2</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>1.56194437723776E-36</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>5.4841227602992395E-7</v>
-      </c>
+        <v>1.02458866914345E-3</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>3.1163152301378098E-9</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>4.4426197781781602E-8</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>1.1061831873588001E-5</v>
+        <v>4.2444453490942601E-12</v>
       </c>
       <c r="C27" s="1">
-        <v>7.3792640321194598E-8</v>
+        <v>2.4527942429070501E-14</v>
       </c>
       <c r="D27">
-        <v>7.30854179073792E-4</v>
-      </c>
-      <c r="E27">
-        <v>1.2841990332288601E-4</v>
+        <v>1.12865664197271E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.3572510174587701E-6</v>
       </c>
       <c r="F27">
-        <v>2.1928860577549301E-2</v>
+        <v>0.174568587141432</v>
       </c>
       <c r="G27">
-        <v>0.50441224911802995</v>
+        <v>8.4520789999608895E-2</v>
       </c>
       <c r="H27">
-        <v>0.60868051854379901</v>
+        <v>0.56572489717836005</v>
       </c>
       <c r="I27">
-        <v>4.8789934525339902E-3</v>
+        <v>0.83753225078142401</v>
       </c>
       <c r="J27">
-        <v>0.116625427483927</v>
+        <v>5.3007084883821901E-2</v>
       </c>
       <c r="K27">
-        <v>9.7159382440277497E-2</v>
+        <v>0.113124231583962</v>
       </c>
       <c r="L27" s="1">
-        <v>2.3849761817218702E-6</v>
+        <v>4.8959435373717202E-40</v>
       </c>
       <c r="M27" s="1">
-        <v>1.62436991823631E-7</v>
-      </c>
-      <c r="N27">
-        <v>2.5199099155712602E-2</v>
+        <v>3.6925195913738299E-78</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3.2200450184918602E-7</v>
       </c>
       <c r="O27" s="1">
-        <v>9.4042405465953705E-5</v>
+        <v>1.6684771073035399E-13</v>
       </c>
       <c r="P27">
-        <v>0.26255206291965699</v>
+        <v>0.10940710842613501</v>
       </c>
       <c r="Q27">
-        <v>0.28332459467973298</v>
+        <v>9.1186222868940695E-2</v>
       </c>
       <c r="R27">
-        <v>4.4829629617890797E-2</v>
+        <v>2.1682690166737201E-2</v>
       </c>
       <c r="S27">
-        <v>0.66141831492341396</v>
+        <v>0.70162889376595505</v>
       </c>
       <c r="T27" s="1">
-        <v>5.5105342111092698E-5</v>
-      </c>
-      <c r="U27">
-        <v>2.2858950393363602E-3</v>
-      </c>
-      <c r="V27">
-        <v>4.5230483358757803E-3</v>
+        <v>9.4133316349838697E-36</v>
+      </c>
+      <c r="U27" s="1">
+        <v>9.0392371740538502E-33</v>
+      </c>
+      <c r="V27" s="1">
+        <v>2.27294999068287E-25</v>
       </c>
       <c r="W27" s="1">
-        <v>7.6925810991066995E-23</v>
+        <v>9.81605781923815E-10</v>
       </c>
       <c r="X27" s="1">
-        <v>3.2807050657188199E-12</v>
+        <v>8.3404760096308499E-12</v>
       </c>
       <c r="Y27" s="1">
-        <v>2.36778458698394E-26</v>
+        <v>5.1014865162697099E-27</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>7.3033158721482194E-2</v>
+        <v>2.2072616864552402E-2</v>
       </c>
       <c r="AB27" s="1">
-        <v>1.5900163017643401E-6</v>
+        <v>0.64879320228469495</v>
       </c>
       <c r="AC27">
-        <v>5.0649476661434801E-6</v>
+        <v>5.9081667173930099E-3</v>
       </c>
       <c r="AD27" s="1">
-        <v>7.6277011691011807E-9</v>
+        <v>0.16342562529270399</v>
       </c>
       <c r="AE27">
-        <v>0.26899224942065803</v>
-      </c>
-      <c r="AF27">
-        <v>8.2752236028497503E-2</v>
-      </c>
-      <c r="AG27">
-        <v>4.6243587415432399E-2</v>
-      </c>
-      <c r="AH27">
-        <v>0.93408015078664897</v>
-      </c>
-      <c r="AI27">
-        <v>0.85709103168733702</v>
-      </c>
-      <c r="AJ27">
-        <v>0.29949512496163899</v>
-      </c>
-      <c r="AK27">
-        <v>4.5149288508844101E-2</v>
-      </c>
-      <c r="AL27">
-        <v>5.5926819015442199E-2</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>5.6171835050617504E-83</v>
-      </c>
-      <c r="AN27">
-        <v>0.18174331166944199</v>
-      </c>
+        <v>0.70270668262540004</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>7.2971743404695499E-5</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>1.6084447752222399E-21</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>8.5903226690076504E-14</v>
+      </c>
+      <c r="AM27" s="1"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>7.4232035580165102E-37</v>
+        <v>2.3867860071290901E-20</v>
       </c>
       <c r="C28" s="1">
-        <v>7.52946421760909E-23</v>
+        <v>1.9448135589964502E-9</v>
       </c>
       <c r="D28">
-        <v>0.290696345191231</v>
+        <v>1.22969721898914E-4</v>
       </c>
       <c r="E28" s="1">
-        <v>2.2139606452845498E-12</v>
+        <v>2.3139328701434499E-5</v>
       </c>
       <c r="F28">
-        <v>5.28082398990126E-2</v>
+        <v>0.33687365087677101</v>
       </c>
       <c r="G28">
-        <v>0.201861686590914</v>
+        <v>0.56805950844410602</v>
       </c>
       <c r="H28">
-        <v>0.77866802063779395</v>
+        <v>0.66369229206792002</v>
       </c>
       <c r="I28">
-        <v>6.9963080674839306E-2</v>
+        <v>0.32596192019958797</v>
       </c>
       <c r="J28" s="1">
-        <v>8.7216900245886206E-5</v>
+        <v>1.04868464273963E-3</v>
       </c>
       <c r="K28">
-        <v>2.5402714600457099E-4</v>
+        <v>2.80427517066639E-3</v>
       </c>
       <c r="L28" s="1">
-        <v>6.3255256261741196E-9</v>
+        <v>4.2004345401750202E-4</v>
       </c>
       <c r="M28" s="1">
-        <v>1.20541144950744E-11</v>
+        <v>5.7236683742345099E-2</v>
       </c>
       <c r="N28">
-        <v>0.24830519630231801</v>
+        <v>0.40249382686310398</v>
       </c>
       <c r="O28" s="1">
-        <v>2.6233816173266799E-8</v>
+        <v>0.40249636964563201</v>
       </c>
       <c r="P28">
-        <v>0.77652276184483104</v>
+        <v>0.50827799607523205</v>
       </c>
       <c r="Q28">
-        <v>0.245479283693535</v>
+        <v>0.20812979698258399</v>
       </c>
       <c r="R28">
-        <v>9.1800444439605805E-2</v>
+        <v>0.69844286794671295</v>
       </c>
       <c r="S28">
-        <v>0.76518538118433399</v>
+        <v>0.31710494188124</v>
       </c>
       <c r="T28" s="1">
-        <v>4.7507081476414997E-6</v>
+        <v>9.6458514980271998E-3</v>
       </c>
       <c r="U28" s="1">
-        <v>1.2535956430541599E-8</v>
+        <v>0.13521064553217099</v>
       </c>
       <c r="V28" s="1">
-        <v>1.92872000420905E-7</v>
+        <v>9.7639642663338494E-2</v>
       </c>
       <c r="W28" s="1">
-        <v>6.3916407562102304E-2</v>
+        <v>4.7481925076190601E-13</v>
       </c>
       <c r="X28" s="1">
-        <v>3.0999428940599597E-8</v>
+        <v>2.26447537388219E-8</v>
       </c>
       <c r="Y28">
-        <v>0.63119559983177898</v>
+        <v>1.9647562073738401E-4</v>
       </c>
       <c r="Z28">
-        <v>5.1606929013878096E-3</v>
+        <v>2.2072616864552402E-2</v>
       </c>
       <c r="AA28" s="1">
-        <v>8.6432689481662693E-28</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>4.0913102090912602E-35</v>
+        <v>8.65623392210473E-24</v>
       </c>
       <c r="AC28" s="1">
-        <v>9.5150622734930101E-28</v>
+        <v>4.0985011822785502E-6</v>
       </c>
       <c r="AD28" s="1">
-        <v>6.7488530738304502E-16</v>
+        <v>6.1562763354646699E-11</v>
       </c>
       <c r="AE28" s="1">
-        <v>7.7893658693986997E-70</v>
+        <v>5.6101797974316305E-35</v>
       </c>
       <c r="AF28" s="1">
-        <v>4.2554766208139398E-40</v>
+        <v>5.3408021046267797E-18</v>
       </c>
       <c r="AG28">
-        <v>3.4265485784268202E-14</v>
+        <v>1.5311442596541399E-3</v>
       </c>
       <c r="AH28">
-        <v>1.0456879083190801E-25</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>1.63438269009491E-71</v>
-      </c>
-      <c r="AJ28">
-        <v>1.20408716118746E-31</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>1.6651134974132599E-40</v>
-      </c>
-      <c r="AL28">
-        <v>3.1542927474239E-33</v>
-      </c>
-      <c r="AM28">
-        <v>0.62916017759018505</v>
-      </c>
-      <c r="AN28">
-        <v>1.23201717452991E-51</v>
-      </c>
+        <v>6.2895202662848902E-4</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>4.5687194133165497E-25</v>
+        <v>1.60242995315878E-16</v>
       </c>
       <c r="C29" s="1">
-        <v>6.5652381172861996E-62</v>
+        <v>3.7152091356702401E-38</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0197417197345E-5</v>
+        <v>1.9562636295886501E-5</v>
       </c>
       <c r="E29" s="1">
-        <v>9.2622283419199598E-8</v>
+        <v>3.0954541871738001E-14</v>
       </c>
       <c r="F29">
-        <v>3.6443489666620199E-2</v>
+        <v>0.106396883895825</v>
       </c>
       <c r="G29">
-        <v>0.37283163599890401</v>
+        <v>0.47135043480299099</v>
       </c>
       <c r="H29">
-        <v>0.475691426986593</v>
+        <v>0.57342933672630303</v>
       </c>
       <c r="I29">
-        <v>0.56679037566086399</v>
+        <v>0.20518870434491501</v>
       </c>
       <c r="J29" s="1">
-        <v>6.1562285446288305E-7</v>
+        <v>1.3424971927261E-7</v>
       </c>
       <c r="K29" s="1">
-        <v>1.74177710287523E-6</v>
+        <v>1.65809492669834E-6</v>
       </c>
       <c r="L29" s="1">
-        <v>2.0139314630287E-8</v>
+        <v>0.90509745669781605</v>
       </c>
       <c r="M29" s="1">
-        <v>1.18914247713077E-11</v>
+        <v>0.85543847876669299</v>
       </c>
       <c r="N29">
-        <v>8.7258537176302796E-4</v>
+        <v>0.56320941287514603</v>
       </c>
       <c r="O29" s="1">
-        <v>2.7824009099013301E-5</v>
+        <v>0.30761469231469601</v>
       </c>
       <c r="P29">
-        <v>0.86922382399443998</v>
+        <v>0.88373703678211402</v>
       </c>
       <c r="Q29">
-        <v>0.81199672525546196</v>
+        <v>0.68847629432102797</v>
       </c>
       <c r="R29">
-        <v>0.96073263293401701</v>
+        <v>0.51656146688789095</v>
       </c>
       <c r="S29">
-        <v>0.89484360888321601</v>
+        <v>0.91920629634125595</v>
       </c>
       <c r="T29" s="1">
-        <v>1.06049886912998E-4</v>
+        <v>0.147301918518737</v>
       </c>
       <c r="U29" s="1">
-        <v>2.5626513624583401E-6</v>
+        <v>0.81716905369978599</v>
       </c>
       <c r="V29" s="1">
-        <v>7.8694898299691802E-6</v>
-      </c>
-      <c r="W29">
-        <v>0.19272565627656801</v>
+        <v>0.98848248408948303</v>
+      </c>
+      <c r="W29" s="1">
+        <v>2.8968633449868002E-10</v>
       </c>
       <c r="X29" s="1">
-        <v>1.6790879995088299E-4</v>
+        <v>1.4290126077045099E-33</v>
       </c>
       <c r="Y29">
-        <v>3.7741004476848799E-3</v>
+        <v>0.68615541942809499</v>
       </c>
       <c r="Z29" s="1">
-        <v>1.81671590549005E-6</v>
+        <v>0.64879320228469495</v>
       </c>
       <c r="AA29" s="1">
-        <v>3.0599316656661501E-17</v>
+        <v>8.65623392210473E-24</v>
       </c>
       <c r="AB29" s="1">
-        <v>9.8930951436731291E-28</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>1.76794314471477E-29</v>
+        <v>5.9844736839237303E-4</v>
       </c>
       <c r="AD29" s="1">
-        <v>2.6444577831055099E-25</v>
+        <v>1.6724789623193201E-18</v>
       </c>
       <c r="AE29" s="1">
-        <v>5.5928778330205099E-36</v>
+        <v>1.9604235992612099E-13</v>
       </c>
       <c r="AF29" s="1">
-        <v>4.3419397084451501E-44</v>
+        <v>2.2904527845277301E-52</v>
       </c>
       <c r="AG29">
-        <v>6.6614087987577402E-3</v>
+        <v>3.5270016238155601E-3</v>
       </c>
       <c r="AH29">
-        <v>7.2251681460857097E-19</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>8.8723140836867507E-21</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>1.5003939426787001E-37</v>
-      </c>
-      <c r="AK29">
-        <v>6.2670974367791296E-21</v>
-      </c>
-      <c r="AL29">
-        <v>1.4764044718137401E-17</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>2.79891662721812E-5</v>
-      </c>
-      <c r="AN29">
-        <v>1.2510824808135901E-20</v>
-      </c>
+        <v>2.3674450017209E-3</v>
+      </c>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AM29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>1.6976053087809099E-8</v>
+        <v>0.162214037149391</v>
       </c>
       <c r="C30" s="1">
-        <v>1.06469205053327E-7</v>
-      </c>
-      <c r="D30">
-        <v>0.38092665645103901</v>
+        <v>0.66555607876457101</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.4628125461873802E-9</v>
       </c>
       <c r="E30" s="1">
-        <v>2.3168644936879801E-6</v>
+        <v>0.50302372663134698</v>
       </c>
       <c r="F30">
-        <v>2.42294398037818E-2</v>
+        <v>0.123729345837129</v>
       </c>
       <c r="G30">
-        <v>0.94096517123218804</v>
+        <v>0.15914154947980499</v>
       </c>
       <c r="H30">
-        <v>0.68488058153129705</v>
+        <v>0.36476096298917099</v>
       </c>
       <c r="I30">
-        <v>0.56539390221583297</v>
+        <v>0.84989549389913299</v>
       </c>
       <c r="J30">
-        <v>4.2554829604411301E-2</v>
+        <v>9.9695336740839705E-2</v>
       </c>
       <c r="K30">
-        <v>0.234226091484076</v>
+        <v>0.51026188936015204</v>
       </c>
       <c r="L30" s="1">
-        <v>1.6935454135653001E-41</v>
+        <v>2.6089983650785598E-3</v>
       </c>
       <c r="M30" s="1">
-        <v>3.3349915453244898E-25</v>
-      </c>
-      <c r="N30">
-        <v>0.77150590232983096</v>
+        <v>1.9723253688517801E-4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.57208206958715E-15</v>
       </c>
       <c r="O30" s="1">
-        <v>4.49997614179174E-9</v>
+        <v>7.9279846641818599E-7</v>
       </c>
       <c r="P30">
-        <v>0.140133883814302</v>
+        <v>0.72096040926279203</v>
       </c>
       <c r="Q30">
-        <v>0.21135989691882701</v>
+        <v>0.59617482507390396</v>
       </c>
       <c r="R30" s="1">
-        <v>2.6830788615992401E-2</v>
+        <v>0.59490320454552703</v>
       </c>
       <c r="S30">
-        <v>0.36384941134908</v>
+        <v>0.75074345036648704</v>
       </c>
       <c r="T30" s="1">
-        <v>3.97547354763512E-18</v>
+        <v>1.7241771541568401E-2</v>
       </c>
       <c r="U30" s="1">
-        <v>3.3801922422976198E-14</v>
+        <v>7.16602374944031E-4</v>
       </c>
       <c r="V30" s="1">
-        <v>2.1675727882104999E-13</v>
+        <v>2.9192930921511599E-3</v>
       </c>
       <c r="W30">
-        <v>0.322949730754788</v>
+        <v>2.22733255584057E-2</v>
       </c>
       <c r="X30" s="1">
-        <v>2.1383282283361501E-2</v>
+        <v>0.52042321030107797</v>
       </c>
       <c r="Y30">
-        <v>1.4492263947400099E-2</v>
+        <v>0.253599966766409</v>
       </c>
       <c r="Z30" s="1">
-        <v>2.2840706847734299E-4</v>
+        <v>5.9081667173930099E-3</v>
       </c>
       <c r="AA30" s="1">
-        <v>3.8548914416869201E-10</v>
+        <v>4.0985011822785502E-6</v>
       </c>
       <c r="AB30" s="1">
-        <v>3.1087768382133598E-5</v>
+        <v>5.9844736839237303E-4</v>
       </c>
       <c r="AC30" s="1">
-        <v>1.21648298679977E-36</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>8.7858068332987895E-43</v>
+        <v>6.19685635238153E-10</v>
       </c>
       <c r="AE30">
-        <v>1.86918755076008E-16</v>
+        <v>7.5069183597773999E-4</v>
       </c>
       <c r="AF30">
-        <v>3.6373136226303201E-14</v>
-      </c>
-      <c r="AG30">
-        <v>0.119656231115617</v>
+        <v>2.4214842299022901E-3</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>3.2584543309251801E-5</v>
       </c>
       <c r="AH30">
-        <v>9.9710838763479797E-8</v>
-      </c>
-      <c r="AI30">
-        <v>3.0661920759889002E-9</v>
-      </c>
-      <c r="AJ30">
-        <v>6.2823529932926803E-10</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>9.0873456729747603E-28</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>5.4138995257020401E-26</v>
-      </c>
-      <c r="AM30">
-        <v>2.1020656158072E-4</v>
-      </c>
-      <c r="AN30">
-        <v>1.1352893134182301E-19</v>
-      </c>
+        <v>2.1808670830054701E-3</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>4.2444453682755801E-12</v>
+        <v>2.7345284691524298E-5</v>
       </c>
       <c r="C31" s="1">
-        <v>2.45279425151043E-14</v>
+        <v>1.6639468275847E-7</v>
       </c>
       <c r="D31">
-        <v>1.1286566434986401E-2</v>
+        <v>2.1785966611300701E-3</v>
       </c>
       <c r="E31" s="1">
-        <v>3.3572510076150999E-6</v>
+        <v>5.1280482482637402E-18</v>
       </c>
       <c r="F31">
-        <v>0.174568587482893</v>
+        <v>0.35501481397671503</v>
       </c>
       <c r="G31">
-        <v>8.4520789770275301E-2</v>
+        <v>0.19398542911641101</v>
       </c>
       <c r="H31">
-        <v>0.56572489734311804</v>
+        <v>0.74875469341487499</v>
       </c>
       <c r="I31">
-        <v>0.83753225060931902</v>
-      </c>
-      <c r="J31">
-        <v>5.3007084783986302E-2</v>
+        <v>0.37105172096479999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8.35538731057931E-6</v>
       </c>
       <c r="K31">
-        <v>0.113124231422929</v>
+        <v>7.3314421830099699E-4</v>
       </c>
       <c r="L31" s="1">
-        <v>4.8959434368322702E-40</v>
+        <v>0.163083364855754</v>
       </c>
       <c r="M31" s="1">
-        <v>3.6925194381391299E-78</v>
+        <v>5.8125776743083203E-2</v>
       </c>
       <c r="N31" s="1">
-        <v>3.2200450086858101E-7</v>
+        <v>4.0427661883996003E-3</v>
       </c>
       <c r="O31" s="1">
-        <v>1.66847709052696E-13</v>
+        <v>3.5832071333362801E-3</v>
       </c>
       <c r="P31">
-        <v>0.10940710827787101</v>
+        <v>0.19237362570872099</v>
       </c>
       <c r="Q31">
-        <v>9.1186222786452803E-2</v>
+        <v>0.32166289173797202</v>
       </c>
       <c r="R31" s="1">
-        <v>2.1682690146734698E-2</v>
+        <v>0.90179073878147398</v>
       </c>
       <c r="S31">
-        <v>0.70162889328465605</v>
+        <v>0.3157978388264</v>
       </c>
       <c r="T31" s="1">
-        <v>9.4133315425016697E-36</v>
+        <v>8.7444708732512005E-2</v>
       </c>
       <c r="U31" s="1">
-        <v>9.0392370730189104E-33</v>
+        <v>0.23643583729407699</v>
       </c>
       <c r="V31" s="1">
-        <v>2.2729499694513202E-25</v>
+        <v>0.30204930365571098</v>
       </c>
       <c r="W31">
-        <v>4.8505111237548998E-2</v>
+        <v>4.9041781133450004E-3</v>
       </c>
       <c r="X31">
-        <v>2.5050460657998698E-3</v>
+        <v>2.23035747804993E-2</v>
       </c>
       <c r="Y31">
-        <v>2.15185143941791E-4</v>
+        <v>0.99619648371310199</v>
       </c>
       <c r="Z31" s="1">
-        <v>4.75998195008044E-7</v>
+        <v>0.16342562529270399</v>
       </c>
       <c r="AA31" s="1">
-        <v>9.8160578333343499E-10</v>
+        <v>6.1562763354646699E-11</v>
       </c>
       <c r="AB31" s="1">
-        <v>8.3404761347670803E-12</v>
+        <v>1.6724789623193201E-18</v>
       </c>
       <c r="AC31" s="1">
-        <v>5.1014865077904402E-27</v>
+        <v>6.19685635238153E-10</v>
       </c>
       <c r="AD31" s="1">
-        <v>2.1197579485661198E-52</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>4.61854958156529E-8</v>
+        <v>2.0338959024300898E-3</v>
       </c>
       <c r="AF31">
-        <v>4.5357659714741901E-8</v>
+        <v>1.9083473346434901E-4</v>
       </c>
       <c r="AG31">
-        <v>6.6542490433399298E-3</v>
+        <v>5.2576155556096499E-4</v>
       </c>
       <c r="AH31">
-        <v>2.3472651913118901E-5</v>
-      </c>
-      <c r="AI31">
-        <v>2.1369537100300001E-5</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>2.7449483244137502E-4</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>3.37089771906223E-26</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>5.09350139821923E-22</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>1.7300005723296299E-7</v>
-      </c>
-      <c r="AN31">
-        <v>7.2367538204398702E-9</v>
-      </c>
+        <v>1.9658320586724998E-3</v>
+      </c>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>2.3867860071290901E-20</v>
+        <v>8.0897364832210092E-15</v>
       </c>
       <c r="C32" s="1">
-        <v>1.9448135589964502E-9</v>
+        <v>4.4141649532883096E-9</v>
       </c>
       <c r="D32">
-        <v>1.22969721898914E-4</v>
+        <v>6.12495997384832E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>2.3139328701434499E-5</v>
+        <v>1.0511396723790301E-4</v>
       </c>
       <c r="F32">
-        <v>0.33687365087677101</v>
+        <v>0.90695764664329404</v>
       </c>
       <c r="G32">
-        <v>0.56805950844410602</v>
+        <v>0.18613449432440399</v>
       </c>
       <c r="H32">
-        <v>0.66369229206792002</v>
+        <v>0.94883673034853</v>
       </c>
       <c r="I32">
-        <v>0.32596192019958797</v>
+        <v>0.14678200766854299</v>
       </c>
       <c r="J32">
-        <v>1.04868464273963E-3</v>
+        <v>7.0515194283423304E-3</v>
       </c>
       <c r="K32">
-        <v>2.80427517066639E-3</v>
+        <v>2.46301633811453E-3</v>
       </c>
       <c r="L32">
-        <v>4.2004345401750202E-4</v>
+        <v>9.0513201937417007E-2</v>
       </c>
       <c r="M32">
-        <v>5.72366837423453E-2</v>
+        <v>0.69232104591634502</v>
       </c>
       <c r="N32">
-        <v>0.40249382686310398</v>
+        <v>0.139717082805459</v>
       </c>
       <c r="O32">
-        <v>0.40249636964563201</v>
+        <v>8.3695409978615201E-2</v>
       </c>
       <c r="P32">
-        <v>0.50827799607523205</v>
+        <v>0.184720860288903</v>
       </c>
       <c r="Q32">
-        <v>0.20812979698258399</v>
+        <v>3.4579228897788299E-2</v>
       </c>
       <c r="R32">
-        <v>0.69844286794671295</v>
+        <v>0.79832282225401896</v>
       </c>
       <c r="S32">
-        <v>0.31710494188124</v>
+        <v>0.36952512174938101</v>
       </c>
       <c r="T32">
-        <v>9.6458514980271998E-3</v>
+        <v>0.39496193607506602</v>
       </c>
       <c r="U32" s="1">
-        <v>0.13521064553216899</v>
+        <v>0.41073201166483497</v>
       </c>
       <c r="V32" s="1">
-        <v>9.7639642663338494E-2</v>
+        <v>0.65953337942372003</v>
       </c>
       <c r="W32" s="1">
-        <v>0.39321959070163198</v>
+        <v>5.48562868405814E-33</v>
       </c>
       <c r="X32" s="1">
-        <v>3.5954466905038798E-2</v>
+        <v>3.3590939562156798E-8</v>
       </c>
       <c r="Y32">
-        <v>0.65086664577211595</v>
+        <v>2.1135299331126998E-3</v>
       </c>
       <c r="Z32">
-        <v>0.46667392419005899</v>
+        <v>0.70270668262540004</v>
       </c>
       <c r="AA32" s="1">
-        <v>4.7481925074096103E-13</v>
+        <v>5.6101797974316305E-35</v>
       </c>
       <c r="AB32" s="1">
-        <v>2.2644753846517802E-8</v>
+        <v>1.9604235992612099E-13</v>
       </c>
       <c r="AC32">
-        <v>1.9647562098935601E-4</v>
+        <v>7.5069183597773999E-4</v>
       </c>
       <c r="AD32">
-        <v>2.2072616789629799E-2</v>
+        <v>2.0338959024300898E-3</v>
       </c>
       <c r="AE32">
-        <v>1.18435664938969E-4</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1.9669392458725001E-65</v>
+        <v>8.0020716763683099E-11</v>
       </c>
       <c r="AG32" s="1">
-        <v>3.0822776385478499E-12</v>
+        <v>0.53980823398574895</v>
       </c>
       <c r="AH32" s="1">
-        <v>2.17529759356722E-34</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>7.6637357031718999E-78</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>4.2682241944680499E-59</v>
-      </c>
-      <c r="AK32">
-        <v>1.60559590401447E-32</v>
-      </c>
-      <c r="AL32">
-        <v>1.9472796388755299E-29</v>
-      </c>
-      <c r="AM32">
-        <v>0.94901775211198802</v>
-      </c>
-      <c r="AN32">
-        <v>1.3139123201038599E-58</v>
-      </c>
+        <v>0.123246479713155</v>
+      </c>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>1.60242995315878E-16</v>
+        <v>1.1835054525896E-5</v>
       </c>
       <c r="C33" s="1">
-        <v>3.7152091356700798E-38</v>
+        <v>1.2967153309464401E-13</v>
       </c>
       <c r="D33" s="1">
-        <v>1.9562636295886501E-5</v>
+        <v>1.03344761985412E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>3.0954541871738001E-14</v>
+        <v>6.4850251269973097E-2</v>
       </c>
       <c r="F33">
-        <v>0.106396883895825</v>
+        <v>0.42362623860365001</v>
       </c>
       <c r="G33">
-        <v>0.47135043480299599</v>
+        <v>0.65855240391542202</v>
       </c>
       <c r="H33">
-        <v>0.57342933672630803</v>
+        <v>0.72446181502876805</v>
       </c>
       <c r="I33">
-        <v>0.20518870434491501</v>
+        <v>0.46754257113518499</v>
       </c>
       <c r="J33" s="1">
-        <v>1.3424971927261E-7</v>
+        <v>2.3077796778985901E-4</v>
       </c>
       <c r="K33" s="1">
-        <v>1.65809492669834E-6</v>
+        <v>1.68894922565787E-4</v>
       </c>
       <c r="L33">
-        <v>0.90509745669781605</v>
+        <v>3.4717612437388701E-3</v>
       </c>
       <c r="M33">
-        <v>0.85543847876669299</v>
+        <v>1.046842253746E-3</v>
       </c>
       <c r="N33">
-        <v>0.56320941287514603</v>
+        <v>0.58853908559282198</v>
       </c>
       <c r="O33">
-        <v>0.30761469231469601</v>
+        <v>0.21135551145236101</v>
       </c>
       <c r="P33">
-        <v>0.88373703678212101</v>
+        <v>0.25561706227643499</v>
       </c>
       <c r="Q33">
-        <v>0.68847629432103397</v>
+        <v>9.74336673175836E-2</v>
       </c>
       <c r="R33">
-        <v>0.51656146688789095</v>
+        <v>6.7416309861623502E-2</v>
       </c>
       <c r="S33">
-        <v>0.91920629634124895</v>
-      </c>
-      <c r="T33">
-        <v>0.147301918518737</v>
+        <v>0.69005390430490698</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1.0139602697929E-5</v>
       </c>
       <c r="U33" s="1">
-        <v>0.81716905369978599</v>
+        <v>1.04682568783688E-3</v>
       </c>
       <c r="V33" s="1">
-        <v>0.98848248408949202</v>
+        <v>4.5931913128474302E-3</v>
       </c>
       <c r="W33">
-        <v>0.73573979312939197</v>
+        <v>4.9018909372153599E-4</v>
       </c>
       <c r="X33" s="1">
-        <v>7.2438349456072498E-3</v>
+        <v>1.23500804113368E-24</v>
       </c>
       <c r="Y33">
-        <v>0.21003652241862</v>
-      </c>
-      <c r="Z33">
-        <v>7.62702592518284E-3</v>
+        <v>1.02458866914345E-3</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>7.2971743404695499E-5</v>
       </c>
       <c r="AA33" s="1">
-        <v>2.8968633327311299E-10</v>
+        <v>5.3408021046267797E-18</v>
       </c>
       <c r="AB33" s="1">
-        <v>1.4290125978847099E-33</v>
+        <v>2.2904527845277301E-52</v>
       </c>
       <c r="AC33">
-        <v>0.68615541991801898</v>
+        <v>2.4214842299022901E-3</v>
       </c>
       <c r="AD33">
-        <v>0.64879320173065802</v>
+        <v>1.9083473346434901E-4</v>
       </c>
       <c r="AE33" s="1">
-        <v>8.65623392210473E-24</v>
+        <v>8.0020716763683099E-11</v>
       </c>
       <c r="AF33" s="1">
-        <v>8.5713074327642599E-9</v>
-      </c>
-      <c r="AG33">
-        <v>4.81307434694608E-13</v>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>2.09818043154061E-7</v>
       </c>
       <c r="AH33" s="1">
-        <v>4.4870171636862898E-70</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>1.3768061797806599E-47</v>
-      </c>
-      <c r="AJ33" s="1">
-        <v>2.2192156194859301E-102</v>
-      </c>
-      <c r="AK33">
-        <v>2.2172294007084401E-20</v>
-      </c>
-      <c r="AL33">
-        <v>4.6770942425131504E-15</v>
-      </c>
-      <c r="AM33">
-        <v>0.328883060749038</v>
-      </c>
-      <c r="AN33">
-        <v>2.6514843681503701E-28</v>
-      </c>
+        <v>4.7477892756757999E-7</v>
+      </c>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.162214037149392</v>
+        <v>3.4413210475633298E-3</v>
       </c>
       <c r="C34">
-        <v>0.66555607876457101</v>
+        <v>5.4134454907916003E-3</v>
       </c>
       <c r="D34" s="1">
-        <v>3.4628125461874401E-9</v>
+        <v>0.87516380243310499</v>
       </c>
       <c r="E34">
-        <v>0.50302372663134698</v>
+        <v>3.2569489196800902E-2</v>
       </c>
       <c r="F34">
-        <v>0.123729345837129</v>
+        <v>0.55253225658354199</v>
       </c>
       <c r="G34">
-        <v>0.159141549479804</v>
+        <v>0.38980219331218002</v>
       </c>
       <c r="H34">
-        <v>0.36476096298916799</v>
+        <v>0.33105161026276497</v>
       </c>
       <c r="I34">
-        <v>0.84989549389913299</v>
-      </c>
-      <c r="J34">
-        <v>9.9695336740839705E-2</v>
-      </c>
-      <c r="K34">
-        <v>0.51026188936015204</v>
-      </c>
-      <c r="L34">
-        <v>2.6089983650785598E-3</v>
-      </c>
-      <c r="M34">
-        <v>1.9723253688517801E-4</v>
+        <v>0.53393615049767695</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.7105467902634E-6</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6.8820230934725497E-6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5.7270422766858696E-14</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5.8165879943243001E-21</v>
       </c>
       <c r="N34" s="1">
-        <v>1.5720820695871001E-15</v>
+        <v>1.2323133746772999E-4</v>
       </c>
       <c r="O34" s="1">
-        <v>7.9279846641818599E-7</v>
+        <v>7.0220909353591296E-10</v>
       </c>
       <c r="P34">
-        <v>0.72096040926279203</v>
+        <v>0.45663071328896299</v>
       </c>
       <c r="Q34">
-        <v>0.59617482507390396</v>
+        <v>0.32424158742047499</v>
       </c>
       <c r="R34">
-        <v>0.59490320454553403</v>
+        <v>1.2419106537691E-3</v>
       </c>
       <c r="S34">
-        <v>0.75074345036648704</v>
-      </c>
-      <c r="T34">
-        <v>1.7241771541568401E-2</v>
-      </c>
-      <c r="U34">
-        <v>7.16602374944031E-4</v>
-      </c>
-      <c r="V34">
-        <v>2.9192930921511599E-3</v>
+        <v>0.73248376958207895</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1.0829413675603101E-25</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.7831459015286299E-50</v>
+      </c>
+      <c r="V34" s="1">
+        <v>9.6307614442620701E-40</v>
       </c>
       <c r="W34" s="1">
-        <v>2.0794123551423498E-2</v>
+        <v>1.2133042195855499E-3</v>
       </c>
       <c r="X34">
-        <v>5.3825223617226199E-2</v>
-      </c>
-      <c r="Y34">
-        <v>0.444879006324916</v>
-      </c>
-      <c r="Z34">
-        <v>0.39457945881998102</v>
+        <v>6.5126417232795997E-2</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>3.1163152301378098E-9</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>1.6084447752222399E-21</v>
       </c>
       <c r="AA34">
-        <v>2.2273325561317E-2</v>
+        <v>1.5311442596541399E-3</v>
       </c>
       <c r="AB34">
-        <v>0.52042321076047604</v>
-      </c>
-      <c r="AC34">
-        <v>0.25359996686716102</v>
+        <v>3.5270016238155601E-3</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>3.2584543309251801E-5</v>
       </c>
       <c r="AD34">
-        <v>5.9081666992248701E-3</v>
+        <v>5.2576155556096499E-4</v>
       </c>
       <c r="AE34" s="1">
-        <v>4.0985011822785502E-6</v>
-      </c>
-      <c r="AF34">
-        <v>5.9844736839237303E-4</v>
+        <v>0.53980823398574895</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>2.09818043154061E-7</v>
       </c>
       <c r="AG34" s="1">
-        <v>7.5186837834769796E-21</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
-        <v>1.61424672645505E-23</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>8.3717745883578694E-28</v>
-      </c>
-      <c r="AJ34">
-        <v>4.0093660345233301E-10</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>3.8778804969996698E-14</v>
-      </c>
-      <c r="AL34">
-        <v>7.2493305933055196E-10</v>
-      </c>
-      <c r="AM34">
-        <v>4.34303619581253E-3</v>
-      </c>
-      <c r="AN34">
-        <v>5.5385792338089895E-10</v>
-      </c>
+        <v>5.4919778189973102E-73</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AK34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>2.7345284691524298E-5</v>
+        <v>3.7633348579973303E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>1.6639468275847E-7</v>
+        <v>6.0472122231990201E-2</v>
       </c>
       <c r="D35">
-        <v>2.1785966611300701E-3</v>
+        <v>0.988910926626132</v>
       </c>
       <c r="E35" s="1">
-        <v>5.1280482482637402E-18</v>
+        <v>7.3662130168570997E-2</v>
       </c>
       <c r="F35">
-        <v>0.35501481397671503</v>
+        <v>0.302134106586887</v>
       </c>
       <c r="G35">
-        <v>0.19398542911641101</v>
+        <v>0.52786848962912802</v>
       </c>
       <c r="H35">
-        <v>0.74875469341487499</v>
+        <v>0.18911721615243801</v>
       </c>
       <c r="I35">
-        <v>0.37105172096479599</v>
+        <v>0.33020707834223501</v>
       </c>
       <c r="J35" s="1">
-        <v>8.35538731057931E-6</v>
-      </c>
-      <c r="K35">
-        <v>7.3314421830099699E-4</v>
-      </c>
-      <c r="L35">
-        <v>0.163083364855754</v>
-      </c>
-      <c r="M35">
-        <v>5.8125776743083502E-2</v>
+        <v>1.3071972348225101E-7</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5.5778044104560097E-12</v>
+      </c>
+      <c r="L35" s="1">
+        <v>8.7071468903441699E-11</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5.1994710458497399E-14</v>
       </c>
       <c r="N35">
-        <v>4.0427661883996003E-3</v>
-      </c>
-      <c r="O35">
-        <v>3.5832071333362801E-3</v>
+        <v>3.4953019834605701E-3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.24224625336421E-7</v>
       </c>
       <c r="P35">
-        <v>0.19237362570872099</v>
+        <v>0.38462030027462102</v>
       </c>
       <c r="Q35">
-        <v>0.32166289173797202</v>
+        <v>0.27293533199502101</v>
       </c>
       <c r="R35">
-        <v>0.90179073878147398</v>
+        <v>5.7048448955427603E-3</v>
       </c>
       <c r="S35">
-        <v>0.315797838826402</v>
-      </c>
-      <c r="T35">
-        <v>8.7444708732512005E-2</v>
-      </c>
-      <c r="U35">
-        <v>0.23643583729407699</v>
-      </c>
-      <c r="V35">
-        <v>0.30204930365571098</v>
+        <v>0.718304858813818</v>
+      </c>
+      <c r="T35" s="1">
+        <v>4.2035992852233902E-17</v>
+      </c>
+      <c r="U35" s="1">
+        <v>7.9472646156881294E-33</v>
+      </c>
+      <c r="V35" s="1">
+        <v>4.5310619969961099E-35</v>
       </c>
       <c r="W35">
-        <v>0.98989528371842395</v>
+        <v>3.32225708240299E-2</v>
       </c>
       <c r="X35">
-        <v>0.44849263880609003</v>
-      </c>
-      <c r="Y35">
-        <v>0.835426958496853</v>
-      </c>
-      <c r="Z35">
-        <v>0.43488956915306298</v>
+        <v>0.39055338192883998</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>4.4426197781781602E-8</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>8.5903226690076504E-14</v>
       </c>
       <c r="AA35" s="1">
-        <v>4.9041781182050598E-3</v>
+        <v>6.2895202662848902E-4</v>
       </c>
       <c r="AB35">
-        <v>2.23035748277946E-2</v>
+        <v>2.3674450017209E-3</v>
       </c>
       <c r="AC35">
-        <v>0.99619648437570896</v>
+        <v>2.1808670830054701E-3</v>
       </c>
       <c r="AD35">
-        <v>0.163425625171675</v>
+        <v>1.9658320586724998E-3</v>
       </c>
       <c r="AE35" s="1">
-        <v>6.1562763354646996E-11</v>
+        <v>0.123246479713155</v>
       </c>
       <c r="AF35" s="1">
-        <v>1.6724789623193399E-18</v>
+        <v>4.7477892756757999E-7</v>
       </c>
       <c r="AG35" s="1">
-        <v>6.19685635238153E-10</v>
+        <v>5.4919778189973102E-73</v>
       </c>
       <c r="AH35">
-        <v>7.75237818220462E-4</v>
-      </c>
-      <c r="AI35">
-        <v>4.5892560723388502E-39</v>
-      </c>
-      <c r="AJ35">
-        <v>6.6890724100160997E-49</v>
-      </c>
-      <c r="AK35">
-        <v>8.75755055947451E-16</v>
-      </c>
-      <c r="AL35">
-        <v>2.4427127138500199E-9</v>
-      </c>
-      <c r="AM35">
-        <v>0.48162423060317799</v>
-      </c>
-      <c r="AN35">
-        <v>1.3860916580137399E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>8.0897364725013093E-15</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4.4141649462845697E-9</v>
-      </c>
-      <c r="D36">
-        <v>6.1249599763646002E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.0511396732381801E-4</v>
-      </c>
-      <c r="F36">
-        <v>0.90695764663089795</v>
-      </c>
-      <c r="G36">
-        <v>0.18613449437299301</v>
-      </c>
-      <c r="H36">
-        <v>0.94883673042387995</v>
-      </c>
-      <c r="I36">
-        <v>0.14678200762311899</v>
-      </c>
-      <c r="J36">
-        <v>7.0515194288239599E-3</v>
-      </c>
-      <c r="K36">
-        <v>2.4630163370053201E-3</v>
-      </c>
-      <c r="L36">
-        <v>9.05132019342475E-2</v>
-      </c>
-      <c r="M36">
-        <v>0.69232104596130395</v>
-      </c>
-      <c r="N36">
-        <v>0.13971708277442399</v>
-      </c>
-      <c r="O36">
-        <v>8.3695410010016E-2</v>
-      </c>
-      <c r="P36">
-        <v>0.184720860301891</v>
-      </c>
-      <c r="Q36">
-        <v>3.4579228908675499E-2</v>
-      </c>
-      <c r="R36">
-        <v>0.79832282253299403</v>
-      </c>
-      <c r="S36">
-        <v>0.36952512175435298</v>
-      </c>
-      <c r="T36">
-        <v>0.39496193584700101</v>
-      </c>
-      <c r="U36">
-        <v>0.41073201182193197</v>
-      </c>
-      <c r="V36">
-        <v>0.65953337962385905</v>
-      </c>
-      <c r="W36" s="1">
-        <v>4.4640085406187097E-3</v>
-      </c>
-      <c r="X36" s="1">
-        <v>2.41020050925241E-5</v>
-      </c>
-      <c r="Y36">
-        <v>0.17692199756986901</v>
-      </c>
-      <c r="Z36">
-        <v>0.70256041630044896</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>5.4856286921306298E-33</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>3.3590939504760999E-8</v>
-      </c>
-      <c r="AC36">
-        <v>2.1135299363266901E-3</v>
-      </c>
-      <c r="AD36">
-        <v>0.70270668217908305</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>5.6101797741011005E-35</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>1.96042359300573E-13</v>
-      </c>
-      <c r="AG36">
-        <v>7.5069183612607804E-4</v>
-      </c>
-      <c r="AH36">
-        <v>2.0338959028288598E-3</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>1.6714505027890899E-14</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>1.35597604175614E-41</v>
-      </c>
-      <c r="AK36">
-        <v>1.1618161572084699E-28</v>
-      </c>
-      <c r="AL36">
-        <v>7.6245662183197495E-23</v>
-      </c>
-      <c r="AM36">
-        <v>0.14575588408412199</v>
-      </c>
-      <c r="AN36">
-        <v>3.3658744443735002E-47</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.18350545303075E-5</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.2967153314093901E-13</v>
-      </c>
-      <c r="D37">
-        <v>1.03344761946444E-2</v>
-      </c>
-      <c r="E37">
-        <v>6.4850251267375203E-2</v>
-      </c>
-      <c r="F37">
-        <v>0.423626238519899</v>
-      </c>
-      <c r="G37">
-        <v>0.65855240385790303</v>
-      </c>
-      <c r="H37">
-        <v>0.72446181505650598</v>
-      </c>
-      <c r="I37">
-        <v>0.46754257098233198</v>
-      </c>
-      <c r="J37">
-        <v>2.3077796752209401E-4</v>
-      </c>
-      <c r="K37">
-        <v>1.6889492230437401E-4</v>
-      </c>
-      <c r="L37">
-        <v>3.4717612424533801E-3</v>
-      </c>
-      <c r="M37">
-        <v>1.04684225285117E-3</v>
-      </c>
-      <c r="N37">
-        <v>0.588539085424715</v>
-      </c>
-      <c r="O37">
-        <v>0.211355511331698</v>
-      </c>
-      <c r="P37">
-        <v>0.25561706223047098</v>
-      </c>
-      <c r="Q37">
-        <v>9.7433667315324698E-2</v>
-      </c>
-      <c r="R37">
-        <v>6.74163098180878E-2</v>
-      </c>
-      <c r="S37">
-        <v>0.69005390396003796</v>
-      </c>
-      <c r="T37" s="1">
-        <v>1.0139602693717899E-5</v>
-      </c>
-      <c r="U37">
-        <v>1.0468256878360101E-3</v>
-      </c>
-      <c r="V37">
-        <v>4.5931913129382699E-3</v>
-      </c>
-      <c r="W37">
-        <v>0.74528425318942904</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0.11032505791298</v>
-      </c>
-      <c r="Y37">
-        <v>0.98563289652966202</v>
-      </c>
-      <c r="Z37">
-        <v>0.32323661588776498</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>4.9018909226485898E-4</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>1.23500802543287E-24</v>
-      </c>
-      <c r="AC37">
-        <v>1.0245886697973E-3</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>7.2971743103549997E-5</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>5.3408021034839398E-18</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>2.2904527710531601E-52</v>
-      </c>
-      <c r="AG37">
-        <v>2.4214842267644399E-3</v>
-      </c>
-      <c r="AH37">
-        <v>1.90834733168942E-4</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>8.0020716545764099E-11</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>8.3943975611344305E-6</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>4.9794658870489495E-13</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>9.9440427221458599E-11</v>
-      </c>
-      <c r="AM37">
-        <v>0.742363550698102</v>
-      </c>
-      <c r="AN37">
-        <v>5.4013857740128497E-27</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3.44132189155559E-3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5.4134450208729E-3</v>
-      </c>
-      <c r="D38">
-        <v>0.875163463420364</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3.2569524025602002E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.552532515581447</v>
-      </c>
-      <c r="G38">
-        <v>0.38980227185591998</v>
-      </c>
-      <c r="H38">
-        <v>0.33105107346153201</v>
-      </c>
-      <c r="I38">
-        <v>0.53393636115251397</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2.7105409332018402E-6</v>
-      </c>
-      <c r="K38" s="1">
-        <v>6.8819815223751204E-6</v>
-      </c>
-      <c r="L38" s="1">
-        <v>5.7270571118017703E-14</v>
-      </c>
-      <c r="M38" s="1">
-        <v>5.8165971589071404E-21</v>
-      </c>
-      <c r="N38">
-        <v>1.2323160035896801E-4</v>
-      </c>
-      <c r="O38" s="1">
-        <v>7.02209798995347E-10</v>
-      </c>
-      <c r="P38">
-        <v>0.456630617820243</v>
-      </c>
-      <c r="Q38">
-        <v>0.32424149426160598</v>
-      </c>
-      <c r="R38" s="1">
-        <v>1.24191263931029E-3</v>
-      </c>
-      <c r="S38">
-        <v>0.73248384832634195</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1.0829424853790799E-25</v>
-      </c>
-      <c r="U38" s="1">
-        <v>1.7831623927904599E-50</v>
-      </c>
-      <c r="V38" s="1">
-        <v>9.6308132953807902E-40</v>
-      </c>
-      <c r="W38">
-        <v>0.89740174577308096</v>
-      </c>
-      <c r="X38" s="1">
-        <v>1.44937850311651E-2</v>
-      </c>
-      <c r="Y38">
-        <v>0.465808912352001</v>
-      </c>
-      <c r="Z38">
-        <v>2.8811986501809099E-2</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>1.2133032940513299E-3</v>
-      </c>
-      <c r="AB38">
-        <v>6.5126384972848797E-2</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>3.1163139586317401E-9</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>1.60844701356097E-21</v>
-      </c>
-      <c r="AE38">
-        <v>1.5311452036512901E-3</v>
-      </c>
-      <c r="AF38">
-        <v>3.52700313053835E-3</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>3.2584559230123003E-5</v>
-      </c>
-      <c r="AH38">
-        <v>5.2576074235029095E-4</v>
-      </c>
-      <c r="AI38">
-        <v>0.53980836187025605</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>2.0981846098954E-7</v>
-      </c>
-      <c r="AK38" s="1">
-        <v>3.6173956464596298E-17</v>
-      </c>
-      <c r="AL38" s="1">
-        <v>9.2241887708862904E-98</v>
-      </c>
-      <c r="AM38">
-        <v>0.37376040497354801</v>
-      </c>
-      <c r="AN38">
-        <v>9.0521340016298704E-35</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3.7633343262684901E-2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6.0472130021394101E-2</v>
-      </c>
-      <c r="D39">
-        <v>0.98891078293828105</v>
-      </c>
-      <c r="E39" s="1">
-        <v>7.3662156359783404E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.30213419196670399</v>
-      </c>
-      <c r="G39">
-        <v>0.52786863937168504</v>
-      </c>
-      <c r="H39">
-        <v>0.18911723265130401</v>
-      </c>
-      <c r="I39">
-        <v>0.330206989460469</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1.3071966616087501E-7</v>
-      </c>
-      <c r="K39" s="1">
-        <v>5.57780357195373E-12</v>
-      </c>
-      <c r="L39" s="1">
-        <v>8.7071554013800496E-11</v>
-      </c>
-      <c r="M39" s="1">
-        <v>5.1994740092955999E-14</v>
-      </c>
-      <c r="N39">
-        <v>3.4953037748687399E-3</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1.2422465259319599E-7</v>
-      </c>
-      <c r="P39">
-        <v>0.38462025288589902</v>
-      </c>
-      <c r="Q39">
-        <v>0.272935289167477</v>
-      </c>
-      <c r="R39" s="1">
-        <v>5.7048451241729801E-3</v>
-      </c>
-      <c r="S39">
-        <v>0.71830481681583203</v>
-      </c>
-      <c r="T39" s="1">
-        <v>4.2036010606201098E-17</v>
-      </c>
-      <c r="U39" s="1">
-        <v>7.9472718160377706E-33</v>
-      </c>
-      <c r="V39" s="1">
-        <v>4.5310634258844798E-35</v>
-      </c>
-      <c r="W39">
-        <v>0.54765262424996297</v>
-      </c>
-      <c r="X39" s="1">
-        <v>7.9834087160321494E-3</v>
-      </c>
-      <c r="Y39">
-        <v>0.57033466842559</v>
-      </c>
-      <c r="Z39">
-        <v>0.12599149123334399</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>3.3222555921387002E-2</v>
-      </c>
-      <c r="AB39">
-        <v>0.39055338032928</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>4.4426203861371103E-8</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>8.5903281928541806E-14</v>
-      </c>
-      <c r="AE39">
-        <v>6.2895247754529997E-4</v>
-      </c>
-      <c r="AF39">
-        <v>2.3674447994121899E-3</v>
-      </c>
-      <c r="AG39">
-        <v>2.1808670004109499E-3</v>
-      </c>
-      <c r="AH39">
-        <v>1.9658309034755201E-3</v>
-      </c>
-      <c r="AI39">
-        <v>0.123246531566352</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>4.7477909688295903E-7</v>
-      </c>
-      <c r="AK39" s="1">
-        <v>5.4917058991267498E-73</v>
-      </c>
-      <c r="AL39" s="1">
-        <v>1.4711128606803599E-21</v>
-      </c>
-      <c r="AM39">
-        <v>0.37344946674065699</v>
-      </c>
-      <c r="AN39">
-        <v>4.8813060704984E-35</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1.14471278144994E-4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.0204518544940401E-6</v>
-      </c>
-      <c r="D40">
-        <v>8.4098040645143096E-4</v>
-      </c>
-      <c r="E40">
-        <v>5.4740513685673303E-4</v>
-      </c>
-      <c r="F40">
-        <v>6.0817074453777603E-3</v>
-      </c>
-      <c r="G40">
-        <v>0.64992886709372999</v>
-      </c>
-      <c r="H40">
-        <v>0.50007604451947296</v>
-      </c>
-      <c r="I40">
-        <v>9.92790149662128E-3</v>
-      </c>
-      <c r="J40">
-        <v>0.12805984723679101</v>
-      </c>
-      <c r="K40">
-        <v>8.02416946137572E-2</v>
-      </c>
-      <c r="L40" s="1">
-        <v>3.4128331136609502E-5</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1.7579031973325199E-6</v>
-      </c>
-      <c r="N40">
-        <v>1.67627588522316E-2</v>
-      </c>
-      <c r="O40">
-        <v>1.8659154025970899E-4</v>
-      </c>
-      <c r="P40">
-        <v>0.32255482977521999</v>
-      </c>
-      <c r="Q40">
-        <v>0.29970750378622901</v>
-      </c>
-      <c r="R40">
-        <v>0.11666392354382001</v>
-      </c>
-      <c r="S40">
-        <v>0.62649313623965597</v>
-      </c>
-      <c r="T40">
-        <v>7.9096760499056996E-4</v>
-      </c>
-      <c r="U40">
-        <v>1.7605581347464198E-2</v>
-      </c>
-      <c r="V40">
-        <v>3.01019925180771E-2</v>
-      </c>
-      <c r="W40" s="1">
-        <v>2.10673338510175E-32</v>
-      </c>
-      <c r="X40" s="1">
-        <v>1.43056526358733E-9</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>1.5949828309773402E-39</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>5.3966695364047E-80</v>
-      </c>
-      <c r="AA40">
-        <v>2.70669552823984E-2</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>1.6409237599553701E-5</v>
-      </c>
-      <c r="AC40">
-        <v>3.0442701838460599E-3</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>6.9372681613363098E-6</v>
-      </c>
-      <c r="AE40">
-        <v>0.57627314813571495</v>
-      </c>
-      <c r="AF40">
-        <v>1.8049342936002698E-2</v>
-      </c>
-      <c r="AG40">
-        <v>0.52710901295884505</v>
-      </c>
-      <c r="AH40">
-        <v>0.61134059753764303</v>
-      </c>
-      <c r="AI40">
-        <v>0.84907160984562602</v>
-      </c>
-      <c r="AJ40">
-        <v>0.38647872858738802</v>
-      </c>
-      <c r="AK40">
-        <v>0.110718898673227</v>
-      </c>
-      <c r="AL40">
-        <v>0.363696196303393</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>9.0361827173591696E-133</v>
-      </c>
-      <c r="AN40" s="1">
-        <v>0.391933507146907</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>0.51409315236039199</v>
-      </c>
-      <c r="C41">
-        <v>0.82815690503213601</v>
-      </c>
-      <c r="D41">
-        <v>0.790054066433865</v>
-      </c>
-      <c r="E41">
-        <v>0.909398742638584</v>
-      </c>
-      <c r="F41">
-        <v>7.3216620608591701E-2</v>
-      </c>
-      <c r="G41">
-        <v>0.64348171891804595</v>
-      </c>
-      <c r="H41">
-        <v>0.51107398984767605</v>
-      </c>
-      <c r="I41">
-        <v>0.96204411507157594</v>
-      </c>
-      <c r="J41">
-        <v>0.76210676811675404</v>
-      </c>
-      <c r="K41">
-        <v>0.60106556380293097</v>
-      </c>
-      <c r="L41">
-        <v>0.45363844199129699</v>
-      </c>
-      <c r="M41">
-        <v>0.79708230820280801</v>
-      </c>
-      <c r="N41">
-        <v>0.46168940081144999</v>
-      </c>
-      <c r="O41">
-        <v>0.72863645862307302</v>
-      </c>
-      <c r="P41">
-        <v>0.77794390847904904</v>
-      </c>
-      <c r="Q41">
-        <v>0.99318546620541504</v>
-      </c>
-      <c r="R41">
-        <v>0.33071456322473403</v>
-      </c>
-      <c r="S41">
-        <v>0.92476128335221297</v>
-      </c>
-      <c r="T41">
-        <v>0.32030217227567598</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0.230217839563472</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0.22599729196114099</v>
-      </c>
-      <c r="W41" s="1">
-        <v>7.7222932295897497E-7</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0.31556584497925699</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>2.2527931881555899E-8</v>
-      </c>
-      <c r="Z41">
-        <v>0.85476897795994999</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>0.33980888726902603</v>
-      </c>
-      <c r="AB41">
-        <v>0.71373519488352499</v>
-      </c>
-      <c r="AC41">
-        <v>0.179419952378989</v>
-      </c>
-      <c r="AD41">
-        <v>0.58035098354570003</v>
-      </c>
-      <c r="AE41">
-        <v>0.70820123683952896</v>
-      </c>
-      <c r="AF41">
-        <v>0.74436423972098498</v>
-      </c>
-      <c r="AG41">
-        <v>0.52811015967103603</v>
-      </c>
-      <c r="AH41">
-        <v>0.600923101291713</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.73456504521283905</v>
-      </c>
-      <c r="AJ41">
-        <v>0.83235270481367396</v>
-      </c>
-      <c r="AK41">
-        <v>0.220356256732716</v>
-      </c>
-      <c r="AL41">
-        <v>0.18103734479929401</v>
-      </c>
-      <c r="AM41" s="1">
-        <v>8.1605485306771704E-6</v>
-      </c>
-      <c r="AN41" s="1">
-        <v>3.78111695350716E-12</v>
-      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
